--- a/public/downloads/excel/backdate/registration_sample_collection_lab_tests_template_backdate.xlsx
+++ b/public/downloads/excel/backdate/registration_sample_collection_lab_tests_template_backdate.xlsx
@@ -3413,7 +3413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3528,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -3549,7 +3549,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -3570,7 +3570,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -3591,7 +3591,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -3612,7 +3612,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -3633,7 +3633,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -3654,7 +3654,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -3675,7 +3675,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -3696,7 +3696,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -3717,7 +3717,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -3738,7 +3738,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -3759,7 +3759,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -3780,7 +3780,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -3801,7 +3801,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -3822,7 +3822,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -3843,7 +3843,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -3864,7 +3864,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -3885,7 +3885,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -3906,7 +3906,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -3927,7 +3927,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -3948,7 +3948,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -3969,7 +3969,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -3990,7 +3990,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -4011,7 +4011,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -4032,7 +4032,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -4053,7 +4053,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -4074,7 +4074,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -4095,7 +4095,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
@@ -4116,7 +4116,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -4137,7 +4137,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -4158,7 +4158,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="13"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
@@ -4179,7 +4179,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -4200,7 +4200,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -4221,7 +4221,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
@@ -4242,7 +4242,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -4263,7 +4263,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -4284,7 +4284,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -4305,7 +4305,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4326,7 +4326,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4347,7 +4347,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -4368,7 +4368,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4389,7 +4389,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -4410,7 +4410,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
@@ -4431,7 +4431,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="I46" s="13"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
@@ -4452,7 +4452,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -4473,7 +4473,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="13"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -4494,7 +4494,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -4515,7 +4515,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
@@ -4536,7 +4536,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
@@ -4557,7 +4557,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -4578,7 +4578,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -4599,7 +4599,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -4620,7 +4620,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -4641,7 +4641,7 @@
       <c r="F56" s="19"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -4662,7 +4662,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -4683,7 +4683,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="13"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
@@ -4704,7 +4704,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
@@ -4725,7 +4725,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
@@ -4746,7 +4746,7 @@
       <c r="F61" s="19"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -4767,7 +4767,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="I62" s="13"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
@@ -4788,7 +4788,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="I63" s="13"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
@@ -4809,7 +4809,7 @@
       <c r="F64" s="19"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
@@ -4830,7 +4830,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
@@ -4851,7 +4851,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
@@ -4872,7 +4872,7 @@
       <c r="F67" s="19"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
@@ -4893,7 +4893,7 @@
       <c r="F68" s="19"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
@@ -4914,7 +4914,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="I69" s="13"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
@@ -4935,7 +4935,7 @@
       <c r="F70" s="19"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="I70" s="13"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
@@ -4956,7 +4956,7 @@
       <c r="F71" s="19"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="I71" s="13"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
@@ -4977,7 +4977,7 @@
       <c r="F72" s="19"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
@@ -4998,7 +4998,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="I73" s="13"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
@@ -5019,7 +5019,7 @@
       <c r="F74" s="19"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
@@ -5040,7 +5040,7 @@
       <c r="F75" s="19"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
+      <c r="I75" s="13"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
@@ -5061,7 +5061,7 @@
       <c r="F76" s="19"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
@@ -5082,7 +5082,7 @@
       <c r="F77" s="19"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -5103,7 +5103,7 @@
       <c r="F78" s="19"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
@@ -5124,7 +5124,7 @@
       <c r="F79" s="19"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -5145,7 +5145,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -5166,7 +5166,7 @@
       <c r="F81" s="19"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -5187,7 +5187,7 @@
       <c r="F82" s="19"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -5208,7 +5208,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
+      <c r="I83" s="13"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -5229,7 +5229,7 @@
       <c r="F84" s="19"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
@@ -5250,7 +5250,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
+      <c r="I85" s="13"/>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
@@ -5271,7 +5271,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -5292,7 +5292,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
+      <c r="I87" s="13"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -5313,7 +5313,7 @@
       <c r="F88" s="19"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -5334,7 +5334,7 @@
       <c r="F89" s="19"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="13"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -5355,7 +5355,7 @@
       <c r="F90" s="19"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -5376,7 +5376,7 @@
       <c r="F91" s="19"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -5397,7 +5397,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -5418,7 +5418,7 @@
       <c r="F93" s="19"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
+      <c r="I93" s="13"/>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -5439,7 +5439,7 @@
       <c r="F94" s="19"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
@@ -5460,7 +5460,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
+      <c r="I95" s="13"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -5481,7 +5481,7 @@
       <c r="F96" s="19"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
+      <c r="I96" s="13"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
@@ -5502,7 +5502,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
+      <c r="I97" s="13"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
@@ -5523,7 +5523,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
@@ -5544,7 +5544,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
+      <c r="I99" s="13"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -5565,7 +5565,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -5586,7 +5586,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="I101" s="13"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -5607,7 +5607,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
@@ -5628,7 +5628,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
@@ -5649,7 +5649,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
@@ -5670,7 +5670,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
+      <c r="I105" s="13"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
@@ -5691,7 +5691,7 @@
       <c r="F106" s="19"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
@@ -5712,7 +5712,7 @@
       <c r="F107" s="19"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
+      <c r="I107" s="13"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -5733,7 +5733,7 @@
       <c r="F108" s="19"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -5754,7 +5754,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
+      <c r="I109" s="13"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
@@ -5775,7 +5775,7 @@
       <c r="F110" s="19"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
@@ -5796,7 +5796,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
+      <c r="I111" s="13"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -5817,7 +5817,7 @@
       <c r="F112" s="19"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
@@ -5838,7 +5838,7 @@
       <c r="F113" s="19"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
@@ -5859,7 +5859,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
       <c r="L114" s="17"/>
@@ -5880,7 +5880,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
@@ -5901,7 +5901,7 @@
       <c r="F116" s="19"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="17"/>
@@ -5922,7 +5922,7 @@
       <c r="F117" s="19"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
+      <c r="I117" s="13"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
@@ -5943,7 +5943,7 @@
       <c r="F118" s="19"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
@@ -5964,7 +5964,7 @@
       <c r="F119" s="19"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
+      <c r="I119" s="13"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
@@ -5985,7 +5985,7 @@
       <c r="F120" s="19"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
+      <c r="I120" s="13"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
@@ -6006,7 +6006,7 @@
       <c r="F121" s="19"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
+      <c r="I121" s="13"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
@@ -6027,7 +6027,7 @@
       <c r="F122" s="19"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
+      <c r="I122" s="13"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
       <c r="L122" s="17"/>
@@ -6048,7 +6048,7 @@
       <c r="F123" s="19"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
+      <c r="I123" s="13"/>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
@@ -6069,7 +6069,7 @@
       <c r="F124" s="19"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
+      <c r="I124" s="13"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
@@ -6090,7 +6090,7 @@
       <c r="F125" s="19"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
+      <c r="I125" s="13"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
@@ -6111,7 +6111,7 @@
       <c r="F126" s="19"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
@@ -6132,7 +6132,7 @@
       <c r="F127" s="19"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
@@ -6153,7 +6153,7 @@
       <c r="F128" s="19"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
@@ -6174,7 +6174,7 @@
       <c r="F129" s="19"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
@@ -6195,7 +6195,7 @@
       <c r="F130" s="19"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
+      <c r="I130" s="13"/>
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
@@ -6216,7 +6216,7 @@
       <c r="F131" s="19"/>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
@@ -6237,7 +6237,7 @@
       <c r="F132" s="19"/>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
@@ -6258,7 +6258,7 @@
       <c r="F133" s="19"/>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
@@ -6279,7 +6279,7 @@
       <c r="F134" s="19"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
@@ -6300,7 +6300,7 @@
       <c r="F135" s="19"/>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
@@ -6321,7 +6321,7 @@
       <c r="F136" s="19"/>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
@@ -6342,7 +6342,7 @@
       <c r="F137" s="19"/>
       <c r="G137" s="17"/>
       <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
@@ -6363,7 +6363,7 @@
       <c r="F138" s="19"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
@@ -6384,7 +6384,7 @@
       <c r="F139" s="19"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
-      <c r="I139" s="17"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
@@ -6405,7 +6405,7 @@
       <c r="F140" s="19"/>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
@@ -6426,7 +6426,7 @@
       <c r="F141" s="19"/>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
+      <c r="I141" s="13"/>
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
@@ -6447,7 +6447,7 @@
       <c r="F142" s="19"/>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
@@ -6468,7 +6468,7 @@
       <c r="F143" s="19"/>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
+      <c r="I143" s="13"/>
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
@@ -6489,7 +6489,7 @@
       <c r="F144" s="19"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
+      <c r="I144" s="13"/>
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
@@ -6510,7 +6510,7 @@
       <c r="F145" s="19"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
+      <c r="I145" s="13"/>
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17"/>
@@ -6531,7 +6531,7 @@
       <c r="F146" s="19"/>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17"/>
@@ -6552,7 +6552,7 @@
       <c r="F147" s="19"/>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
+      <c r="I147" s="13"/>
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17"/>
@@ -6573,7 +6573,7 @@
       <c r="F148" s="19"/>
       <c r="G148" s="17"/>
       <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
+      <c r="I148" s="13"/>
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
       <c r="L148" s="17"/>
@@ -6594,7 +6594,7 @@
       <c r="F149" s="19"/>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
+      <c r="I149" s="13"/>
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
       <c r="L149" s="17"/>
@@ -6615,7 +6615,7 @@
       <c r="F150" s="19"/>
       <c r="G150" s="17"/>
       <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
@@ -6636,7 +6636,7 @@
       <c r="F151" s="19"/>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
@@ -6657,7 +6657,7 @@
       <c r="F152" s="19"/>
       <c r="G152" s="17"/>
       <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
@@ -6678,7 +6678,7 @@
       <c r="F153" s="19"/>
       <c r="G153" s="17"/>
       <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
+      <c r="I153" s="13"/>
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
@@ -6699,7 +6699,7 @@
       <c r="F154" s="19"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
@@ -6720,7 +6720,7 @@
       <c r="F155" s="19"/>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
+      <c r="I155" s="13"/>
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
@@ -6741,7 +6741,7 @@
       <c r="F156" s="19"/>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
+      <c r="I156" s="13"/>
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
@@ -6762,7 +6762,7 @@
       <c r="F157" s="19"/>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
+      <c r="I157" s="13"/>
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
@@ -6783,7 +6783,7 @@
       <c r="F158" s="19"/>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
+      <c r="I158" s="13"/>
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
@@ -6804,7 +6804,7 @@
       <c r="F159" s="19"/>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
+      <c r="I159" s="13"/>
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
@@ -6825,7 +6825,7 @@
       <c r="F160" s="19"/>
       <c r="G160" s="17"/>
       <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
+      <c r="I160" s="13"/>
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
       <c r="L160" s="17"/>
@@ -6846,7 +6846,7 @@
       <c r="F161" s="19"/>
       <c r="G161" s="17"/>
       <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
+      <c r="I161" s="13"/>
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
@@ -6867,7 +6867,7 @@
       <c r="F162" s="19"/>
       <c r="G162" s="17"/>
       <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
+      <c r="I162" s="13"/>
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
       <c r="L162" s="17"/>
@@ -6888,7 +6888,7 @@
       <c r="F163" s="19"/>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
       <c r="L163" s="17"/>
@@ -6909,7 +6909,7 @@
       <c r="F164" s="19"/>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
       <c r="L164" s="17"/>
@@ -6930,7 +6930,7 @@
       <c r="F165" s="19"/>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
+      <c r="I165" s="13"/>
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
       <c r="L165" s="17"/>
@@ -6951,7 +6951,7 @@
       <c r="F166" s="19"/>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
+      <c r="I166" s="13"/>
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
       <c r="L166" s="17"/>
@@ -6972,7 +6972,7 @@
       <c r="F167" s="19"/>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
+      <c r="I167" s="13"/>
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
       <c r="L167" s="17"/>
@@ -6993,7 +6993,7 @@
       <c r="F168" s="19"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
+      <c r="I168" s="13"/>
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17"/>
@@ -7014,7 +7014,7 @@
       <c r="F169" s="19"/>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
+      <c r="I169" s="13"/>
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
       <c r="L169" s="17"/>
@@ -7035,7 +7035,7 @@
       <c r="F170" s="19"/>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
+      <c r="I170" s="13"/>
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
       <c r="L170" s="17"/>
@@ -7056,7 +7056,7 @@
       <c r="F171" s="19"/>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
+      <c r="I171" s="13"/>
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17"/>
@@ -7077,7 +7077,7 @@
       <c r="F172" s="19"/>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
+      <c r="I172" s="13"/>
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17"/>
@@ -7098,7 +7098,7 @@
       <c r="F173" s="19"/>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
+      <c r="I173" s="13"/>
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
       <c r="L173" s="17"/>
@@ -7119,7 +7119,7 @@
       <c r="F174" s="19"/>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
+      <c r="I174" s="13"/>
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
       <c r="L174" s="17"/>
@@ -7140,7 +7140,7 @@
       <c r="F175" s="19"/>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
       <c r="L175" s="17"/>
@@ -7161,7 +7161,7 @@
       <c r="F176" s="19"/>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
+      <c r="I176" s="13"/>
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
       <c r="L176" s="17"/>
@@ -7182,7 +7182,7 @@
       <c r="F177" s="19"/>
       <c r="G177" s="17"/>
       <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
+      <c r="I177" s="13"/>
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
       <c r="L177" s="17"/>
@@ -7203,7 +7203,7 @@
       <c r="F178" s="19"/>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
+      <c r="I178" s="13"/>
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
       <c r="L178" s="17"/>
@@ -7224,7 +7224,7 @@
       <c r="F179" s="19"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
+      <c r="I179" s="13"/>
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
       <c r="L179" s="17"/>
@@ -7245,7 +7245,7 @@
       <c r="F180" s="19"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
+      <c r="I180" s="13"/>
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
       <c r="L180" s="17"/>
@@ -7266,7 +7266,7 @@
       <c r="F181" s="19"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
+      <c r="I181" s="13"/>
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
@@ -7287,7 +7287,7 @@
       <c r="F182" s="19"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
+      <c r="I182" s="13"/>
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
@@ -7308,7 +7308,7 @@
       <c r="F183" s="19"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
+      <c r="I183" s="13"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17"/>
@@ -7329,7 +7329,7 @@
       <c r="F184" s="19"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
+      <c r="I184" s="13"/>
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17"/>
@@ -7350,7 +7350,7 @@
       <c r="F185" s="19"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
+      <c r="I185" s="13"/>
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
       <c r="L185" s="17"/>
@@ -7371,7 +7371,7 @@
       <c r="F186" s="19"/>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
+      <c r="I186" s="13"/>
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
       <c r="L186" s="17"/>
@@ -7392,7 +7392,7 @@
       <c r="F187" s="19"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17"/>
@@ -7413,7 +7413,7 @@
       <c r="F188" s="19"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
       <c r="L188" s="17"/>
@@ -7434,7 +7434,7 @@
       <c r="F189" s="19"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
+      <c r="I189" s="13"/>
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
       <c r="L189" s="17"/>
@@ -7455,7 +7455,7 @@
       <c r="F190" s="19"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
+      <c r="I190" s="13"/>
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
@@ -7476,7 +7476,7 @@
       <c r="F191" s="19"/>
       <c r="G191" s="17"/>
       <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
+      <c r="I191" s="13"/>
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
       <c r="L191" s="17"/>
@@ -7497,7 +7497,7 @@
       <c r="F192" s="19"/>
       <c r="G192" s="17"/>
       <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
+      <c r="I192" s="13"/>
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
       <c r="L192" s="17"/>
@@ -7518,7 +7518,7 @@
       <c r="F193" s="19"/>
       <c r="G193" s="17"/>
       <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
+      <c r="I193" s="13"/>
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
       <c r="L193" s="17"/>
@@ -7539,7 +7539,7 @@
       <c r="F194" s="19"/>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
+      <c r="I194" s="13"/>
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
@@ -7560,7 +7560,7 @@
       <c r="F195" s="19"/>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
+      <c r="I195" s="13"/>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
       <c r="L195" s="17"/>
@@ -7581,7 +7581,7 @@
       <c r="F196" s="19"/>
       <c r="G196" s="17"/>
       <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
+      <c r="I196" s="13"/>
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
       <c r="L196" s="17"/>
@@ -7602,7 +7602,7 @@
       <c r="F197" s="19"/>
       <c r="G197" s="17"/>
       <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
+      <c r="I197" s="13"/>
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
       <c r="L197" s="17"/>
@@ -7623,7 +7623,7 @@
       <c r="F198" s="19"/>
       <c r="G198" s="17"/>
       <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
+      <c r="I198" s="13"/>
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
       <c r="L198" s="17"/>
@@ -7644,7 +7644,7 @@
       <c r="F199" s="19"/>
       <c r="G199" s="17"/>
       <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
+      <c r="I199" s="13"/>
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
       <c r="L199" s="17"/>
@@ -7665,7 +7665,7 @@
       <c r="F200" s="19"/>
       <c r="G200" s="17"/>
       <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
       <c r="L200" s="17"/>
@@ -7686,7 +7686,7 @@
       <c r="F201" s="19"/>
       <c r="G201" s="17"/>
       <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
+      <c r="I201" s="13"/>
       <c r="J201" s="17"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17"/>
@@ -7707,7 +7707,7 @@
       <c r="F202" s="19"/>
       <c r="G202" s="17"/>
       <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
+      <c r="I202" s="13"/>
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
       <c r="L202" s="17"/>
@@ -7728,7 +7728,7 @@
       <c r="F203" s="19"/>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
+      <c r="I203" s="13"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
       <c r="L203" s="17"/>
@@ -7749,7 +7749,7 @@
       <c r="F204" s="19"/>
       <c r="G204" s="17"/>
       <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
+      <c r="I204" s="13"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
       <c r="L204" s="17"/>
@@ -7770,7 +7770,7 @@
       <c r="F205" s="19"/>
       <c r="G205" s="17"/>
       <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
+      <c r="I205" s="13"/>
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
       <c r="L205" s="17"/>
@@ -7791,7 +7791,7 @@
       <c r="F206" s="19"/>
       <c r="G206" s="17"/>
       <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
+      <c r="I206" s="13"/>
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
       <c r="L206" s="17"/>
@@ -7812,7 +7812,7 @@
       <c r="F207" s="19"/>
       <c r="G207" s="17"/>
       <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
+      <c r="I207" s="13"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
       <c r="L207" s="17"/>
@@ -7833,7 +7833,7 @@
       <c r="F208" s="19"/>
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
-      <c r="I208" s="17"/>
+      <c r="I208" s="13"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
@@ -7854,7 +7854,7 @@
       <c r="F209" s="19"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
+      <c r="I209" s="13"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
       <c r="L209" s="17"/>
@@ -7875,7 +7875,7 @@
       <c r="F210" s="19"/>
       <c r="G210" s="17"/>
       <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
+      <c r="I210" s="13"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
       <c r="L210" s="17"/>
@@ -7896,7 +7896,7 @@
       <c r="F211" s="19"/>
       <c r="G211" s="17"/>
       <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
+      <c r="I211" s="13"/>
       <c r="J211" s="17"/>
       <c r="K211" s="17"/>
       <c r="L211" s="17"/>
@@ -7917,7 +7917,7 @@
       <c r="F212" s="19"/>
       <c r="G212" s="17"/>
       <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
       <c r="L212" s="17"/>
@@ -7938,7 +7938,7 @@
       <c r="F213" s="19"/>
       <c r="G213" s="17"/>
       <c r="H213" s="17"/>
-      <c r="I213" s="17"/>
+      <c r="I213" s="13"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
       <c r="L213" s="17"/>
@@ -7959,7 +7959,7 @@
       <c r="F214" s="19"/>
       <c r="G214" s="17"/>
       <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
@@ -7980,7 +7980,7 @@
       <c r="F215" s="19"/>
       <c r="G215" s="17"/>
       <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
+      <c r="I215" s="13"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
       <c r="L215" s="17"/>
@@ -8001,7 +8001,7 @@
       <c r="F216" s="19"/>
       <c r="G216" s="17"/>
       <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
+      <c r="I216" s="13"/>
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
       <c r="L216" s="17"/>
@@ -8022,7 +8022,7 @@
       <c r="F217" s="19"/>
       <c r="G217" s="17"/>
       <c r="H217" s="17"/>
-      <c r="I217" s="17"/>
+      <c r="I217" s="13"/>
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
       <c r="L217" s="17"/>
@@ -8043,7 +8043,7 @@
       <c r="F218" s="19"/>
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
+      <c r="I218" s="13"/>
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
       <c r="L218" s="17"/>
@@ -8064,7 +8064,7 @@
       <c r="F219" s="19"/>
       <c r="G219" s="17"/>
       <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
+      <c r="I219" s="13"/>
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
@@ -8085,7 +8085,7 @@
       <c r="F220" s="19"/>
       <c r="G220" s="17"/>
       <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
+      <c r="I220" s="13"/>
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
       <c r="L220" s="17"/>
@@ -8106,7 +8106,7 @@
       <c r="F221" s="19"/>
       <c r="G221" s="17"/>
       <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
+      <c r="I221" s="13"/>
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
       <c r="L221" s="17"/>
@@ -8127,7 +8127,7 @@
       <c r="F222" s="19"/>
       <c r="G222" s="17"/>
       <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
+      <c r="I222" s="13"/>
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
       <c r="L222" s="17"/>
@@ -8148,7 +8148,7 @@
       <c r="F223" s="19"/>
       <c r="G223" s="17"/>
       <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
+      <c r="I223" s="13"/>
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
       <c r="L223" s="17"/>
@@ -8169,7 +8169,7 @@
       <c r="F224" s="19"/>
       <c r="G224" s="17"/>
       <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
+      <c r="I224" s="13"/>
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
       <c r="L224" s="17"/>
@@ -8190,7 +8190,7 @@
       <c r="F225" s="19"/>
       <c r="G225" s="17"/>
       <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
+      <c r="I225" s="13"/>
       <c r="J225" s="17"/>
       <c r="K225" s="17"/>
       <c r="L225" s="17"/>
@@ -8211,7 +8211,7 @@
       <c r="F226" s="19"/>
       <c r="G226" s="17"/>
       <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
+      <c r="I226" s="13"/>
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
       <c r="L226" s="17"/>
@@ -8232,7 +8232,7 @@
       <c r="F227" s="19"/>
       <c r="G227" s="17"/>
       <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
+      <c r="I227" s="13"/>
       <c r="J227" s="17"/>
       <c r="K227" s="17"/>
       <c r="L227" s="17"/>
@@ -8253,7 +8253,7 @@
       <c r="F228" s="19"/>
       <c r="G228" s="17"/>
       <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
+      <c r="I228" s="13"/>
       <c r="J228" s="17"/>
       <c r="K228" s="17"/>
       <c r="L228" s="17"/>
@@ -8274,7 +8274,7 @@
       <c r="F229" s="19"/>
       <c r="G229" s="17"/>
       <c r="H229" s="17"/>
-      <c r="I229" s="17"/>
+      <c r="I229" s="13"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17"/>
       <c r="L229" s="17"/>
@@ -8295,7 +8295,7 @@
       <c r="F230" s="19"/>
       <c r="G230" s="17"/>
       <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
+      <c r="I230" s="13"/>
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
       <c r="L230" s="17"/>
@@ -8316,7 +8316,7 @@
       <c r="F231" s="19"/>
       <c r="G231" s="17"/>
       <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
+      <c r="I231" s="13"/>
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17"/>
@@ -8337,7 +8337,7 @@
       <c r="F232" s="19"/>
       <c r="G232" s="17"/>
       <c r="H232" s="17"/>
-      <c r="I232" s="17"/>
+      <c r="I232" s="13"/>
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17"/>
@@ -8358,7 +8358,7 @@
       <c r="F233" s="19"/>
       <c r="G233" s="17"/>
       <c r="H233" s="17"/>
-      <c r="I233" s="17"/>
+      <c r="I233" s="13"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
       <c r="L233" s="17"/>
@@ -8379,7 +8379,7 @@
       <c r="F234" s="19"/>
       <c r="G234" s="17"/>
       <c r="H234" s="17"/>
-      <c r="I234" s="17"/>
+      <c r="I234" s="13"/>
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
       <c r="L234" s="17"/>
@@ -8400,7 +8400,7 @@
       <c r="F235" s="19"/>
       <c r="G235" s="17"/>
       <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
+      <c r="I235" s="13"/>
       <c r="J235" s="17"/>
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
@@ -8421,7 +8421,7 @@
       <c r="F236" s="19"/>
       <c r="G236" s="17"/>
       <c r="H236" s="17"/>
-      <c r="I236" s="17"/>
+      <c r="I236" s="13"/>
       <c r="J236" s="17"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17"/>
@@ -8442,7 +8442,7 @@
       <c r="F237" s="19"/>
       <c r="G237" s="17"/>
       <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
+      <c r="I237" s="13"/>
       <c r="J237" s="17"/>
       <c r="K237" s="17"/>
       <c r="L237" s="17"/>
@@ -8463,7 +8463,7 @@
       <c r="F238" s="19"/>
       <c r="G238" s="17"/>
       <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
+      <c r="I238" s="13"/>
       <c r="J238" s="17"/>
       <c r="K238" s="17"/>
       <c r="L238" s="17"/>
@@ -8484,7 +8484,7 @@
       <c r="F239" s="19"/>
       <c r="G239" s="17"/>
       <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
+      <c r="I239" s="13"/>
       <c r="J239" s="17"/>
       <c r="K239" s="17"/>
       <c r="L239" s="17"/>
@@ -8505,7 +8505,7 @@
       <c r="F240" s="19"/>
       <c r="G240" s="17"/>
       <c r="H240" s="17"/>
-      <c r="I240" s="17"/>
+      <c r="I240" s="13"/>
       <c r="J240" s="17"/>
       <c r="K240" s="17"/>
       <c r="L240" s="17"/>
@@ -8526,7 +8526,7 @@
       <c r="F241" s="19"/>
       <c r="G241" s="17"/>
       <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
+      <c r="I241" s="13"/>
       <c r="J241" s="17"/>
       <c r="K241" s="17"/>
       <c r="L241" s="17"/>
@@ -8547,7 +8547,7 @@
       <c r="F242" s="19"/>
       <c r="G242" s="17"/>
       <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
+      <c r="I242" s="13"/>
       <c r="J242" s="17"/>
       <c r="K242" s="17"/>
       <c r="L242" s="17"/>
@@ -8568,7 +8568,7 @@
       <c r="F243" s="19"/>
       <c r="G243" s="17"/>
       <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
+      <c r="I243" s="13"/>
       <c r="J243" s="17"/>
       <c r="K243" s="17"/>
       <c r="L243" s="17"/>
@@ -8589,7 +8589,7 @@
       <c r="F244" s="19"/>
       <c r="G244" s="17"/>
       <c r="H244" s="17"/>
-      <c r="I244" s="17"/>
+      <c r="I244" s="13"/>
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
       <c r="L244" s="17"/>
@@ -8610,7 +8610,7 @@
       <c r="F245" s="19"/>
       <c r="G245" s="17"/>
       <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
+      <c r="I245" s="13"/>
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17"/>
@@ -8631,7 +8631,7 @@
       <c r="F246" s="19"/>
       <c r="G246" s="17"/>
       <c r="H246" s="17"/>
-      <c r="I246" s="17"/>
+      <c r="I246" s="13"/>
       <c r="J246" s="17"/>
       <c r="K246" s="17"/>
       <c r="L246" s="17"/>
@@ -8652,7 +8652,7 @@
       <c r="F247" s="19"/>
       <c r="G247" s="17"/>
       <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
+      <c r="I247" s="13"/>
       <c r="J247" s="17"/>
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
@@ -8673,7 +8673,7 @@
       <c r="F248" s="19"/>
       <c r="G248" s="17"/>
       <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
+      <c r="I248" s="13"/>
       <c r="J248" s="17"/>
       <c r="K248" s="17"/>
       <c r="L248" s="17"/>
@@ -8694,7 +8694,7 @@
       <c r="F249" s="19"/>
       <c r="G249" s="17"/>
       <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
+      <c r="I249" s="13"/>
       <c r="J249" s="17"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17"/>
@@ -8715,7 +8715,7 @@
       <c r="F250" s="19"/>
       <c r="G250" s="17"/>
       <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
+      <c r="I250" s="13"/>
       <c r="J250" s="17"/>
       <c r="K250" s="17"/>
       <c r="L250" s="17"/>
@@ -8736,7 +8736,7 @@
       <c r="F251" s="19"/>
       <c r="G251" s="17"/>
       <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
+      <c r="I251" s="13"/>
       <c r="J251" s="17"/>
       <c r="K251" s="17"/>
       <c r="L251" s="17"/>
@@ -8757,7 +8757,7 @@
       <c r="F252" s="19"/>
       <c r="G252" s="17"/>
       <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
+      <c r="I252" s="13"/>
       <c r="J252" s="17"/>
       <c r="K252" s="17"/>
       <c r="L252" s="17"/>
@@ -8778,7 +8778,7 @@
       <c r="F253" s="19"/>
       <c r="G253" s="17"/>
       <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
+      <c r="I253" s="13"/>
       <c r="J253" s="17"/>
       <c r="K253" s="17"/>
       <c r="L253" s="17"/>
@@ -8799,7 +8799,7 @@
       <c r="F254" s="19"/>
       <c r="G254" s="17"/>
       <c r="H254" s="17"/>
-      <c r="I254" s="17"/>
+      <c r="I254" s="13"/>
       <c r="J254" s="17"/>
       <c r="K254" s="17"/>
       <c r="L254" s="17"/>
@@ -8820,7 +8820,7 @@
       <c r="F255" s="19"/>
       <c r="G255" s="17"/>
       <c r="H255" s="17"/>
-      <c r="I255" s="17"/>
+      <c r="I255" s="13"/>
       <c r="J255" s="17"/>
       <c r="K255" s="17"/>
       <c r="L255" s="17"/>
@@ -8841,7 +8841,7 @@
       <c r="F256" s="19"/>
       <c r="G256" s="17"/>
       <c r="H256" s="17"/>
-      <c r="I256" s="17"/>
+      <c r="I256" s="13"/>
       <c r="J256" s="17"/>
       <c r="K256" s="17"/>
       <c r="L256" s="17"/>
@@ -8862,7 +8862,7 @@
       <c r="F257" s="19"/>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
+      <c r="I257" s="13"/>
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
       <c r="L257" s="17"/>
@@ -8883,7 +8883,7 @@
       <c r="F258" s="19"/>
       <c r="G258" s="17"/>
       <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
+      <c r="I258" s="13"/>
       <c r="J258" s="17"/>
       <c r="K258" s="17"/>
       <c r="L258" s="17"/>
@@ -8904,7 +8904,7 @@
       <c r="F259" s="19"/>
       <c r="G259" s="17"/>
       <c r="H259" s="17"/>
-      <c r="I259" s="17"/>
+      <c r="I259" s="13"/>
       <c r="J259" s="17"/>
       <c r="K259" s="17"/>
       <c r="L259" s="17"/>
@@ -8925,7 +8925,7 @@
       <c r="F260" s="19"/>
       <c r="G260" s="17"/>
       <c r="H260" s="17"/>
-      <c r="I260" s="17"/>
+      <c r="I260" s="13"/>
       <c r="J260" s="17"/>
       <c r="K260" s="17"/>
       <c r="L260" s="17"/>
@@ -8946,7 +8946,7 @@
       <c r="F261" s="19"/>
       <c r="G261" s="17"/>
       <c r="H261" s="17"/>
-      <c r="I261" s="17"/>
+      <c r="I261" s="13"/>
       <c r="J261" s="17"/>
       <c r="K261" s="17"/>
       <c r="L261" s="17"/>
@@ -8967,7 +8967,7 @@
       <c r="F262" s="19"/>
       <c r="G262" s="17"/>
       <c r="H262" s="17"/>
-      <c r="I262" s="17"/>
+      <c r="I262" s="13"/>
       <c r="J262" s="17"/>
       <c r="K262" s="17"/>
       <c r="L262" s="17"/>
@@ -8988,7 +8988,7 @@
       <c r="F263" s="19"/>
       <c r="G263" s="17"/>
       <c r="H263" s="17"/>
-      <c r="I263" s="17"/>
+      <c r="I263" s="13"/>
       <c r="J263" s="17"/>
       <c r="K263" s="17"/>
       <c r="L263" s="17"/>
@@ -9009,7 +9009,7 @@
       <c r="F264" s="19"/>
       <c r="G264" s="17"/>
       <c r="H264" s="17"/>
-      <c r="I264" s="17"/>
+      <c r="I264" s="13"/>
       <c r="J264" s="17"/>
       <c r="K264" s="17"/>
       <c r="L264" s="17"/>
@@ -9030,7 +9030,7 @@
       <c r="F265" s="19"/>
       <c r="G265" s="17"/>
       <c r="H265" s="17"/>
-      <c r="I265" s="17"/>
+      <c r="I265" s="13"/>
       <c r="J265" s="17"/>
       <c r="K265" s="17"/>
       <c r="L265" s="17"/>
@@ -9051,7 +9051,7 @@
       <c r="F266" s="19"/>
       <c r="G266" s="17"/>
       <c r="H266" s="17"/>
-      <c r="I266" s="17"/>
+      <c r="I266" s="13"/>
       <c r="J266" s="17"/>
       <c r="K266" s="17"/>
       <c r="L266" s="17"/>
@@ -9072,7 +9072,7 @@
       <c r="F267" s="19"/>
       <c r="G267" s="17"/>
       <c r="H267" s="17"/>
-      <c r="I267" s="17"/>
+      <c r="I267" s="13"/>
       <c r="J267" s="17"/>
       <c r="K267" s="17"/>
       <c r="L267" s="17"/>
@@ -9093,7 +9093,7 @@
       <c r="F268" s="19"/>
       <c r="G268" s="17"/>
       <c r="H268" s="17"/>
-      <c r="I268" s="17"/>
+      <c r="I268" s="13"/>
       <c r="J268" s="17"/>
       <c r="K268" s="17"/>
       <c r="L268" s="17"/>
@@ -9114,7 +9114,7 @@
       <c r="F269" s="19"/>
       <c r="G269" s="17"/>
       <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
+      <c r="I269" s="13"/>
       <c r="J269" s="17"/>
       <c r="K269" s="17"/>
       <c r="L269" s="17"/>
@@ -9135,7 +9135,7 @@
       <c r="F270" s="19"/>
       <c r="G270" s="17"/>
       <c r="H270" s="17"/>
-      <c r="I270" s="17"/>
+      <c r="I270" s="13"/>
       <c r="J270" s="17"/>
       <c r="K270" s="17"/>
       <c r="L270" s="17"/>
@@ -9156,7 +9156,7 @@
       <c r="F271" s="19"/>
       <c r="G271" s="17"/>
       <c r="H271" s="17"/>
-      <c r="I271" s="17"/>
+      <c r="I271" s="13"/>
       <c r="J271" s="17"/>
       <c r="K271" s="17"/>
       <c r="L271" s="17"/>
@@ -9177,7 +9177,7 @@
       <c r="F272" s="19"/>
       <c r="G272" s="17"/>
       <c r="H272" s="17"/>
-      <c r="I272" s="17"/>
+      <c r="I272" s="13"/>
       <c r="J272" s="17"/>
       <c r="K272" s="17"/>
       <c r="L272" s="17"/>
@@ -9198,7 +9198,7 @@
       <c r="F273" s="19"/>
       <c r="G273" s="17"/>
       <c r="H273" s="17"/>
-      <c r="I273" s="17"/>
+      <c r="I273" s="13"/>
       <c r="J273" s="17"/>
       <c r="K273" s="17"/>
       <c r="L273" s="17"/>
@@ -9219,7 +9219,7 @@
       <c r="F274" s="19"/>
       <c r="G274" s="17"/>
       <c r="H274" s="17"/>
-      <c r="I274" s="17"/>
+      <c r="I274" s="13"/>
       <c r="J274" s="17"/>
       <c r="K274" s="17"/>
       <c r="L274" s="17"/>
@@ -9240,7 +9240,7 @@
       <c r="F275" s="19"/>
       <c r="G275" s="17"/>
       <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
+      <c r="I275" s="13"/>
       <c r="J275" s="17"/>
       <c r="K275" s="17"/>
       <c r="L275" s="17"/>
@@ -9261,7 +9261,7 @@
       <c r="F276" s="19"/>
       <c r="G276" s="17"/>
       <c r="H276" s="17"/>
-      <c r="I276" s="17"/>
+      <c r="I276" s="13"/>
       <c r="J276" s="17"/>
       <c r="K276" s="17"/>
       <c r="L276" s="17"/>
@@ -9282,7 +9282,7 @@
       <c r="F277" s="19"/>
       <c r="G277" s="17"/>
       <c r="H277" s="17"/>
-      <c r="I277" s="17"/>
+      <c r="I277" s="13"/>
       <c r="J277" s="17"/>
       <c r="K277" s="17"/>
       <c r="L277" s="17"/>
@@ -9303,7 +9303,7 @@
       <c r="F278" s="19"/>
       <c r="G278" s="17"/>
       <c r="H278" s="17"/>
-      <c r="I278" s="17"/>
+      <c r="I278" s="13"/>
       <c r="J278" s="17"/>
       <c r="K278" s="17"/>
       <c r="L278" s="17"/>
@@ -9324,7 +9324,7 @@
       <c r="F279" s="19"/>
       <c r="G279" s="17"/>
       <c r="H279" s="17"/>
-      <c r="I279" s="17"/>
+      <c r="I279" s="13"/>
       <c r="J279" s="17"/>
       <c r="K279" s="17"/>
       <c r="L279" s="17"/>
@@ -9345,7 +9345,7 @@
       <c r="F280" s="19"/>
       <c r="G280" s="17"/>
       <c r="H280" s="17"/>
-      <c r="I280" s="17"/>
+      <c r="I280" s="13"/>
       <c r="J280" s="17"/>
       <c r="K280" s="17"/>
       <c r="L280" s="17"/>
@@ -9366,7 +9366,7 @@
       <c r="F281" s="19"/>
       <c r="G281" s="17"/>
       <c r="H281" s="17"/>
-      <c r="I281" s="17"/>
+      <c r="I281" s="13"/>
       <c r="J281" s="17"/>
       <c r="K281" s="17"/>
       <c r="L281" s="17"/>
@@ -9387,7 +9387,7 @@
       <c r="F282" s="19"/>
       <c r="G282" s="17"/>
       <c r="H282" s="17"/>
-      <c r="I282" s="17"/>
+      <c r="I282" s="13"/>
       <c r="J282" s="17"/>
       <c r="K282" s="17"/>
       <c r="L282" s="17"/>
@@ -9408,7 +9408,7 @@
       <c r="F283" s="19"/>
       <c r="G283" s="17"/>
       <c r="H283" s="17"/>
-      <c r="I283" s="17"/>
+      <c r="I283" s="13"/>
       <c r="J283" s="17"/>
       <c r="K283" s="17"/>
       <c r="L283" s="17"/>
@@ -9429,7 +9429,7 @@
       <c r="F284" s="19"/>
       <c r="G284" s="17"/>
       <c r="H284" s="17"/>
-      <c r="I284" s="17"/>
+      <c r="I284" s="13"/>
       <c r="J284" s="17"/>
       <c r="K284" s="17"/>
       <c r="L284" s="17"/>
@@ -9450,7 +9450,7 @@
       <c r="F285" s="19"/>
       <c r="G285" s="17"/>
       <c r="H285" s="17"/>
-      <c r="I285" s="17"/>
+      <c r="I285" s="13"/>
       <c r="J285" s="17"/>
       <c r="K285" s="17"/>
       <c r="L285" s="17"/>
@@ -9471,7 +9471,7 @@
       <c r="F286" s="19"/>
       <c r="G286" s="17"/>
       <c r="H286" s="17"/>
-      <c r="I286" s="17"/>
+      <c r="I286" s="13"/>
       <c r="J286" s="17"/>
       <c r="K286" s="17"/>
       <c r="L286" s="17"/>
@@ -9492,7 +9492,7 @@
       <c r="F287" s="19"/>
       <c r="G287" s="17"/>
       <c r="H287" s="17"/>
-      <c r="I287" s="17"/>
+      <c r="I287" s="13"/>
       <c r="J287" s="17"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17"/>
@@ -9513,7 +9513,7 @@
       <c r="F288" s="19"/>
       <c r="G288" s="17"/>
       <c r="H288" s="17"/>
-      <c r="I288" s="17"/>
+      <c r="I288" s="13"/>
       <c r="J288" s="17"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17"/>
@@ -9534,7 +9534,7 @@
       <c r="F289" s="19"/>
       <c r="G289" s="17"/>
       <c r="H289" s="17"/>
-      <c r="I289" s="17"/>
+      <c r="I289" s="13"/>
       <c r="J289" s="17"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17"/>
@@ -9555,7 +9555,7 @@
       <c r="F290" s="19"/>
       <c r="G290" s="17"/>
       <c r="H290" s="17"/>
-      <c r="I290" s="17"/>
+      <c r="I290" s="13"/>
       <c r="J290" s="17"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17"/>
@@ -9576,7 +9576,7 @@
       <c r="F291" s="19"/>
       <c r="G291" s="17"/>
       <c r="H291" s="17"/>
-      <c r="I291" s="17"/>
+      <c r="I291" s="13"/>
       <c r="J291" s="17"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17"/>
@@ -9597,7 +9597,7 @@
       <c r="F292" s="19"/>
       <c r="G292" s="17"/>
       <c r="H292" s="17"/>
-      <c r="I292" s="17"/>
+      <c r="I292" s="13"/>
       <c r="J292" s="17"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17"/>
@@ -9618,7 +9618,7 @@
       <c r="F293" s="19"/>
       <c r="G293" s="17"/>
       <c r="H293" s="17"/>
-      <c r="I293" s="17"/>
+      <c r="I293" s="13"/>
       <c r="J293" s="17"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17"/>
@@ -9639,7 +9639,7 @@
       <c r="F294" s="19"/>
       <c r="G294" s="17"/>
       <c r="H294" s="17"/>
-      <c r="I294" s="17"/>
+      <c r="I294" s="13"/>
       <c r="J294" s="17"/>
       <c r="K294" s="17"/>
       <c r="L294" s="17"/>
@@ -9660,7 +9660,7 @@
       <c r="F295" s="19"/>
       <c r="G295" s="17"/>
       <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
+      <c r="I295" s="13"/>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
       <c r="L295" s="17"/>
@@ -9681,7 +9681,7 @@
       <c r="F296" s="19"/>
       <c r="G296" s="17"/>
       <c r="H296" s="17"/>
-      <c r="I296" s="17"/>
+      <c r="I296" s="13"/>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
       <c r="L296" s="17"/>
@@ -9702,7 +9702,7 @@
       <c r="F297" s="19"/>
       <c r="G297" s="17"/>
       <c r="H297" s="17"/>
-      <c r="I297" s="17"/>
+      <c r="I297" s="13"/>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
       <c r="L297" s="17"/>
@@ -9723,7 +9723,7 @@
       <c r="F298" s="19"/>
       <c r="G298" s="17"/>
       <c r="H298" s="17"/>
-      <c r="I298" s="17"/>
+      <c r="I298" s="13"/>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
       <c r="L298" s="17"/>
@@ -9744,7 +9744,7 @@
       <c r="F299" s="19"/>
       <c r="G299" s="17"/>
       <c r="H299" s="17"/>
-      <c r="I299" s="17"/>
+      <c r="I299" s="13"/>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
       <c r="L299" s="17"/>
@@ -9765,7 +9765,7 @@
       <c r="F300" s="19"/>
       <c r="G300" s="17"/>
       <c r="H300" s="17"/>
-      <c r="I300" s="17"/>
+      <c r="I300" s="13"/>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
       <c r="L300" s="17"/>
@@ -9786,7 +9786,7 @@
       <c r="F301" s="19"/>
       <c r="G301" s="17"/>
       <c r="H301" s="17"/>
-      <c r="I301" s="17"/>
+      <c r="I301" s="13"/>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
       <c r="L301" s="17"/>
@@ -9807,7 +9807,7 @@
       <c r="F302" s="19"/>
       <c r="G302" s="17"/>
       <c r="H302" s="17"/>
-      <c r="I302" s="17"/>
+      <c r="I302" s="13"/>
       <c r="J302" s="17"/>
       <c r="K302" s="17"/>
       <c r="L302" s="17"/>
@@ -9828,7 +9828,7 @@
       <c r="F303" s="19"/>
       <c r="G303" s="17"/>
       <c r="H303" s="17"/>
-      <c r="I303" s="17"/>
+      <c r="I303" s="13"/>
       <c r="J303" s="17"/>
       <c r="K303" s="17"/>
       <c r="L303" s="17"/>
@@ -9849,7 +9849,7 @@
       <c r="F304" s="19"/>
       <c r="G304" s="17"/>
       <c r="H304" s="17"/>
-      <c r="I304" s="17"/>
+      <c r="I304" s="13"/>
       <c r="J304" s="17"/>
       <c r="K304" s="17"/>
       <c r="L304" s="17"/>
@@ -9870,7 +9870,7 @@
       <c r="F305" s="19"/>
       <c r="G305" s="17"/>
       <c r="H305" s="17"/>
-      <c r="I305" s="17"/>
+      <c r="I305" s="13"/>
       <c r="J305" s="17"/>
       <c r="K305" s="17"/>
       <c r="L305" s="17"/>
@@ -9891,7 +9891,7 @@
       <c r="F306" s="19"/>
       <c r="G306" s="17"/>
       <c r="H306" s="17"/>
-      <c r="I306" s="17"/>
+      <c r="I306" s="13"/>
       <c r="J306" s="17"/>
       <c r="K306" s="17"/>
       <c r="L306" s="17"/>
@@ -9912,7 +9912,7 @@
       <c r="F307" s="19"/>
       <c r="G307" s="17"/>
       <c r="H307" s="17"/>
-      <c r="I307" s="17"/>
+      <c r="I307" s="13"/>
       <c r="J307" s="17"/>
       <c r="K307" s="17"/>
       <c r="L307" s="17"/>
@@ -9933,7 +9933,7 @@
       <c r="F308" s="19"/>
       <c r="G308" s="17"/>
       <c r="H308" s="17"/>
-      <c r="I308" s="17"/>
+      <c r="I308" s="13"/>
       <c r="J308" s="17"/>
       <c r="K308" s="17"/>
       <c r="L308" s="17"/>
@@ -9954,7 +9954,7 @@
       <c r="F309" s="19"/>
       <c r="G309" s="17"/>
       <c r="H309" s="17"/>
-      <c r="I309" s="17"/>
+      <c r="I309" s="13"/>
       <c r="J309" s="17"/>
       <c r="K309" s="17"/>
       <c r="L309" s="17"/>
@@ -9975,7 +9975,7 @@
       <c r="F310" s="19"/>
       <c r="G310" s="17"/>
       <c r="H310" s="17"/>
-      <c r="I310" s="17"/>
+      <c r="I310" s="13"/>
       <c r="J310" s="17"/>
       <c r="K310" s="17"/>
       <c r="L310" s="17"/>
@@ -9996,7 +9996,7 @@
       <c r="F311" s="19"/>
       <c r="G311" s="17"/>
       <c r="H311" s="17"/>
-      <c r="I311" s="17"/>
+      <c r="I311" s="13"/>
       <c r="J311" s="17"/>
       <c r="K311" s="17"/>
       <c r="L311" s="17"/>
@@ -10017,7 +10017,7 @@
       <c r="F312" s="19"/>
       <c r="G312" s="17"/>
       <c r="H312" s="17"/>
-      <c r="I312" s="17"/>
+      <c r="I312" s="13"/>
       <c r="J312" s="17"/>
       <c r="K312" s="17"/>
       <c r="L312" s="17"/>
@@ -10038,7 +10038,7 @@
       <c r="F313" s="19"/>
       <c r="G313" s="17"/>
       <c r="H313" s="17"/>
-      <c r="I313" s="17"/>
+      <c r="I313" s="13"/>
       <c r="J313" s="17"/>
       <c r="K313" s="17"/>
       <c r="L313" s="17"/>
@@ -10059,7 +10059,7 @@
       <c r="F314" s="19"/>
       <c r="G314" s="17"/>
       <c r="H314" s="17"/>
-      <c r="I314" s="17"/>
+      <c r="I314" s="13"/>
       <c r="J314" s="17"/>
       <c r="K314" s="17"/>
       <c r="L314" s="17"/>
@@ -10080,7 +10080,7 @@
       <c r="F315" s="19"/>
       <c r="G315" s="17"/>
       <c r="H315" s="17"/>
-      <c r="I315" s="17"/>
+      <c r="I315" s="13"/>
       <c r="J315" s="17"/>
       <c r="K315" s="17"/>
       <c r="L315" s="17"/>
@@ -10101,7 +10101,7 @@
       <c r="F316" s="19"/>
       <c r="G316" s="17"/>
       <c r="H316" s="17"/>
-      <c r="I316" s="17"/>
+      <c r="I316" s="13"/>
       <c r="J316" s="17"/>
       <c r="K316" s="17"/>
       <c r="L316" s="17"/>
@@ -10122,7 +10122,7 @@
       <c r="F317" s="19"/>
       <c r="G317" s="17"/>
       <c r="H317" s="17"/>
-      <c r="I317" s="17"/>
+      <c r="I317" s="13"/>
       <c r="J317" s="17"/>
       <c r="K317" s="17"/>
       <c r="L317" s="17"/>
@@ -10143,7 +10143,7 @@
       <c r="F318" s="19"/>
       <c r="G318" s="17"/>
       <c r="H318" s="17"/>
-      <c r="I318" s="17"/>
+      <c r="I318" s="13"/>
       <c r="J318" s="17"/>
       <c r="K318" s="17"/>
       <c r="L318" s="17"/>
@@ -10164,7 +10164,7 @@
       <c r="F319" s="19"/>
       <c r="G319" s="17"/>
       <c r="H319" s="17"/>
-      <c r="I319" s="17"/>
+      <c r="I319" s="13"/>
       <c r="J319" s="17"/>
       <c r="K319" s="17"/>
       <c r="L319" s="17"/>
@@ -10185,7 +10185,7 @@
       <c r="F320" s="19"/>
       <c r="G320" s="17"/>
       <c r="H320" s="17"/>
-      <c r="I320" s="17"/>
+      <c r="I320" s="13"/>
       <c r="J320" s="17"/>
       <c r="K320" s="17"/>
       <c r="L320" s="17"/>
@@ -10206,7 +10206,7 @@
       <c r="F321" s="19"/>
       <c r="G321" s="17"/>
       <c r="H321" s="17"/>
-      <c r="I321" s="17"/>
+      <c r="I321" s="13"/>
       <c r="J321" s="17"/>
       <c r="K321" s="17"/>
       <c r="L321" s="17"/>
@@ -10227,7 +10227,7 @@
       <c r="F322" s="19"/>
       <c r="G322" s="17"/>
       <c r="H322" s="17"/>
-      <c r="I322" s="17"/>
+      <c r="I322" s="13"/>
       <c r="J322" s="17"/>
       <c r="K322" s="17"/>
       <c r="L322" s="17"/>
@@ -10248,7 +10248,7 @@
       <c r="F323" s="19"/>
       <c r="G323" s="17"/>
       <c r="H323" s="17"/>
-      <c r="I323" s="17"/>
+      <c r="I323" s="13"/>
       <c r="J323" s="17"/>
       <c r="K323" s="17"/>
       <c r="L323" s="17"/>
@@ -10269,7 +10269,7 @@
       <c r="F324" s="19"/>
       <c r="G324" s="17"/>
       <c r="H324" s="17"/>
-      <c r="I324" s="17"/>
+      <c r="I324" s="13"/>
       <c r="J324" s="17"/>
       <c r="K324" s="17"/>
       <c r="L324" s="17"/>
@@ -10290,7 +10290,7 @@
       <c r="F325" s="19"/>
       <c r="G325" s="17"/>
       <c r="H325" s="17"/>
-      <c r="I325" s="17"/>
+      <c r="I325" s="13"/>
       <c r="J325" s="17"/>
       <c r="K325" s="17"/>
       <c r="L325" s="17"/>
@@ -10311,7 +10311,7 @@
       <c r="F326" s="19"/>
       <c r="G326" s="17"/>
       <c r="H326" s="17"/>
-      <c r="I326" s="17"/>
+      <c r="I326" s="13"/>
       <c r="J326" s="17"/>
       <c r="K326" s="17"/>
       <c r="L326" s="17"/>
@@ -10332,7 +10332,7 @@
       <c r="F327" s="19"/>
       <c r="G327" s="17"/>
       <c r="H327" s="17"/>
-      <c r="I327" s="17"/>
+      <c r="I327" s="13"/>
       <c r="J327" s="17"/>
       <c r="K327" s="17"/>
       <c r="L327" s="17"/>
@@ -10353,7 +10353,7 @@
       <c r="F328" s="19"/>
       <c r="G328" s="17"/>
       <c r="H328" s="17"/>
-      <c r="I328" s="17"/>
+      <c r="I328" s="13"/>
       <c r="J328" s="17"/>
       <c r="K328" s="17"/>
       <c r="L328" s="17"/>
@@ -10374,7 +10374,7 @@
       <c r="F329" s="19"/>
       <c r="G329" s="17"/>
       <c r="H329" s="17"/>
-      <c r="I329" s="17"/>
+      <c r="I329" s="13"/>
       <c r="J329" s="17"/>
       <c r="K329" s="17"/>
       <c r="L329" s="17"/>
@@ -10395,7 +10395,7 @@
       <c r="F330" s="19"/>
       <c r="G330" s="17"/>
       <c r="H330" s="17"/>
-      <c r="I330" s="17"/>
+      <c r="I330" s="13"/>
       <c r="J330" s="17"/>
       <c r="K330" s="17"/>
       <c r="L330" s="17"/>
@@ -10416,7 +10416,7 @@
       <c r="F331" s="19"/>
       <c r="G331" s="17"/>
       <c r="H331" s="17"/>
-      <c r="I331" s="17"/>
+      <c r="I331" s="13"/>
       <c r="J331" s="17"/>
       <c r="K331" s="17"/>
       <c r="L331" s="17"/>
@@ -10437,7 +10437,7 @@
       <c r="F332" s="19"/>
       <c r="G332" s="17"/>
       <c r="H332" s="17"/>
-      <c r="I332" s="17"/>
+      <c r="I332" s="13"/>
       <c r="J332" s="17"/>
       <c r="K332" s="17"/>
       <c r="L332" s="17"/>
@@ -10458,7 +10458,7 @@
       <c r="F333" s="19"/>
       <c r="G333" s="17"/>
       <c r="H333" s="17"/>
-      <c r="I333" s="17"/>
+      <c r="I333" s="13"/>
       <c r="J333" s="17"/>
       <c r="K333" s="17"/>
       <c r="L333" s="17"/>
@@ -10479,7 +10479,7 @@
       <c r="F334" s="19"/>
       <c r="G334" s="17"/>
       <c r="H334" s="17"/>
-      <c r="I334" s="17"/>
+      <c r="I334" s="13"/>
       <c r="J334" s="17"/>
       <c r="K334" s="17"/>
       <c r="L334" s="17"/>
@@ -10500,7 +10500,7 @@
       <c r="F335" s="19"/>
       <c r="G335" s="17"/>
       <c r="H335" s="17"/>
-      <c r="I335" s="17"/>
+      <c r="I335" s="13"/>
       <c r="J335" s="17"/>
       <c r="K335" s="17"/>
       <c r="L335" s="17"/>
@@ -10521,7 +10521,7 @@
       <c r="F336" s="19"/>
       <c r="G336" s="17"/>
       <c r="H336" s="17"/>
-      <c r="I336" s="17"/>
+      <c r="I336" s="13"/>
       <c r="J336" s="17"/>
       <c r="K336" s="17"/>
       <c r="L336" s="17"/>
@@ -10542,7 +10542,7 @@
       <c r="F337" s="19"/>
       <c r="G337" s="17"/>
       <c r="H337" s="17"/>
-      <c r="I337" s="17"/>
+      <c r="I337" s="13"/>
       <c r="J337" s="17"/>
       <c r="K337" s="17"/>
       <c r="L337" s="17"/>
@@ -10563,7 +10563,7 @@
       <c r="F338" s="19"/>
       <c r="G338" s="17"/>
       <c r="H338" s="17"/>
-      <c r="I338" s="17"/>
+      <c r="I338" s="13"/>
       <c r="J338" s="17"/>
       <c r="K338" s="17"/>
       <c r="L338" s="17"/>
@@ -10584,7 +10584,7 @@
       <c r="F339" s="19"/>
       <c r="G339" s="17"/>
       <c r="H339" s="17"/>
-      <c r="I339" s="17"/>
+      <c r="I339" s="13"/>
       <c r="J339" s="17"/>
       <c r="K339" s="17"/>
       <c r="L339" s="17"/>
@@ -10605,7 +10605,7 @@
       <c r="F340" s="19"/>
       <c r="G340" s="17"/>
       <c r="H340" s="17"/>
-      <c r="I340" s="17"/>
+      <c r="I340" s="13"/>
       <c r="J340" s="17"/>
       <c r="K340" s="17"/>
       <c r="L340" s="17"/>
@@ -10626,7 +10626,7 @@
       <c r="F341" s="19"/>
       <c r="G341" s="17"/>
       <c r="H341" s="17"/>
-      <c r="I341" s="17"/>
+      <c r="I341" s="13"/>
       <c r="J341" s="17"/>
       <c r="K341" s="17"/>
       <c r="L341" s="17"/>
@@ -10647,7 +10647,7 @@
       <c r="F342" s="19"/>
       <c r="G342" s="17"/>
       <c r="H342" s="17"/>
-      <c r="I342" s="17"/>
+      <c r="I342" s="13"/>
       <c r="J342" s="17"/>
       <c r="K342" s="17"/>
       <c r="L342" s="17"/>
@@ -10668,7 +10668,7 @@
       <c r="F343" s="19"/>
       <c r="G343" s="17"/>
       <c r="H343" s="17"/>
-      <c r="I343" s="17"/>
+      <c r="I343" s="13"/>
       <c r="J343" s="17"/>
       <c r="K343" s="17"/>
       <c r="L343" s="17"/>
@@ -10689,7 +10689,7 @@
       <c r="F344" s="19"/>
       <c r="G344" s="17"/>
       <c r="H344" s="17"/>
-      <c r="I344" s="17"/>
+      <c r="I344" s="13"/>
       <c r="J344" s="17"/>
       <c r="K344" s="17"/>
       <c r="L344" s="17"/>
@@ -10710,7 +10710,7 @@
       <c r="F345" s="19"/>
       <c r="G345" s="17"/>
       <c r="H345" s="17"/>
-      <c r="I345" s="17"/>
+      <c r="I345" s="13"/>
       <c r="J345" s="17"/>
       <c r="K345" s="17"/>
       <c r="L345" s="17"/>
@@ -10731,7 +10731,7 @@
       <c r="F346" s="19"/>
       <c r="G346" s="17"/>
       <c r="H346" s="17"/>
-      <c r="I346" s="17"/>
+      <c r="I346" s="13"/>
       <c r="J346" s="17"/>
       <c r="K346" s="17"/>
       <c r="L346" s="17"/>
@@ -10752,7 +10752,7 @@
       <c r="F347" s="19"/>
       <c r="G347" s="17"/>
       <c r="H347" s="17"/>
-      <c r="I347" s="17"/>
+      <c r="I347" s="13"/>
       <c r="J347" s="17"/>
       <c r="K347" s="17"/>
       <c r="L347" s="17"/>
@@ -10773,7 +10773,7 @@
       <c r="F348" s="19"/>
       <c r="G348" s="17"/>
       <c r="H348" s="17"/>
-      <c r="I348" s="17"/>
+      <c r="I348" s="13"/>
       <c r="J348" s="17"/>
       <c r="K348" s="17"/>
       <c r="L348" s="17"/>
@@ -10794,7 +10794,7 @@
       <c r="F349" s="19"/>
       <c r="G349" s="17"/>
       <c r="H349" s="17"/>
-      <c r="I349" s="17"/>
+      <c r="I349" s="13"/>
       <c r="J349" s="17"/>
       <c r="K349" s="17"/>
       <c r="L349" s="17"/>
@@ -10815,7 +10815,7 @@
       <c r="F350" s="19"/>
       <c r="G350" s="17"/>
       <c r="H350" s="17"/>
-      <c r="I350" s="17"/>
+      <c r="I350" s="13"/>
       <c r="J350" s="17"/>
       <c r="K350" s="17"/>
       <c r="L350" s="17"/>
@@ -10836,7 +10836,7 @@
       <c r="F351" s="19"/>
       <c r="G351" s="17"/>
       <c r="H351" s="17"/>
-      <c r="I351" s="17"/>
+      <c r="I351" s="13"/>
       <c r="J351" s="17"/>
       <c r="K351" s="17"/>
       <c r="L351" s="17"/>
@@ -10857,7 +10857,7 @@
       <c r="F352" s="19"/>
       <c r="G352" s="17"/>
       <c r="H352" s="17"/>
-      <c r="I352" s="17"/>
+      <c r="I352" s="13"/>
       <c r="J352" s="17"/>
       <c r="K352" s="17"/>
       <c r="L352" s="17"/>
@@ -10878,7 +10878,7 @@
       <c r="F353" s="19"/>
       <c r="G353" s="17"/>
       <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
+      <c r="I353" s="13"/>
       <c r="J353" s="17"/>
       <c r="K353" s="17"/>
       <c r="L353" s="17"/>
@@ -10899,7 +10899,7 @@
       <c r="F354" s="19"/>
       <c r="G354" s="17"/>
       <c r="H354" s="17"/>
-      <c r="I354" s="17"/>
+      <c r="I354" s="13"/>
       <c r="J354" s="17"/>
       <c r="K354" s="17"/>
       <c r="L354" s="17"/>
@@ -10920,7 +10920,7 @@
       <c r="F355" s="19"/>
       <c r="G355" s="17"/>
       <c r="H355" s="17"/>
-      <c r="I355" s="17"/>
+      <c r="I355" s="13"/>
       <c r="J355" s="17"/>
       <c r="K355" s="17"/>
       <c r="L355" s="17"/>
@@ -10941,7 +10941,7 @@
       <c r="F356" s="19"/>
       <c r="G356" s="17"/>
       <c r="H356" s="17"/>
-      <c r="I356" s="17"/>
+      <c r="I356" s="13"/>
       <c r="J356" s="17"/>
       <c r="K356" s="17"/>
       <c r="L356" s="17"/>
@@ -10962,7 +10962,7 @@
       <c r="F357" s="19"/>
       <c r="G357" s="17"/>
       <c r="H357" s="17"/>
-      <c r="I357" s="17"/>
+      <c r="I357" s="13"/>
       <c r="J357" s="17"/>
       <c r="K357" s="17"/>
       <c r="L357" s="17"/>
@@ -10983,7 +10983,7 @@
       <c r="F358" s="19"/>
       <c r="G358" s="17"/>
       <c r="H358" s="17"/>
-      <c r="I358" s="17"/>
+      <c r="I358" s="13"/>
       <c r="J358" s="17"/>
       <c r="K358" s="17"/>
       <c r="L358" s="17"/>
@@ -11004,7 +11004,7 @@
       <c r="F359" s="19"/>
       <c r="G359" s="17"/>
       <c r="H359" s="17"/>
-      <c r="I359" s="17"/>
+      <c r="I359" s="13"/>
       <c r="J359" s="17"/>
       <c r="K359" s="17"/>
       <c r="L359" s="17"/>
@@ -11025,7 +11025,7 @@
       <c r="F360" s="19"/>
       <c r="G360" s="17"/>
       <c r="H360" s="17"/>
-      <c r="I360" s="17"/>
+      <c r="I360" s="13"/>
       <c r="J360" s="17"/>
       <c r="K360" s="17"/>
       <c r="L360" s="17"/>
@@ -11046,7 +11046,7 @@
       <c r="F361" s="19"/>
       <c r="G361" s="17"/>
       <c r="H361" s="17"/>
-      <c r="I361" s="17"/>
+      <c r="I361" s="13"/>
       <c r="J361" s="17"/>
       <c r="K361" s="17"/>
       <c r="L361" s="17"/>
@@ -11067,7 +11067,7 @@
       <c r="F362" s="19"/>
       <c r="G362" s="17"/>
       <c r="H362" s="17"/>
-      <c r="I362" s="17"/>
+      <c r="I362" s="13"/>
       <c r="J362" s="17"/>
       <c r="K362" s="17"/>
       <c r="L362" s="17"/>
@@ -11088,7 +11088,7 @@
       <c r="F363" s="19"/>
       <c r="G363" s="17"/>
       <c r="H363" s="17"/>
-      <c r="I363" s="17"/>
+      <c r="I363" s="13"/>
       <c r="J363" s="17"/>
       <c r="K363" s="17"/>
       <c r="L363" s="17"/>
@@ -11109,7 +11109,7 @@
       <c r="F364" s="19"/>
       <c r="G364" s="17"/>
       <c r="H364" s="17"/>
-      <c r="I364" s="17"/>
+      <c r="I364" s="13"/>
       <c r="J364" s="17"/>
       <c r="K364" s="17"/>
       <c r="L364" s="17"/>
@@ -11130,7 +11130,7 @@
       <c r="F365" s="19"/>
       <c r="G365" s="17"/>
       <c r="H365" s="17"/>
-      <c r="I365" s="17"/>
+      <c r="I365" s="13"/>
       <c r="J365" s="17"/>
       <c r="K365" s="17"/>
       <c r="L365" s="17"/>
@@ -11151,7 +11151,7 @@
       <c r="F366" s="19"/>
       <c r="G366" s="17"/>
       <c r="H366" s="17"/>
-      <c r="I366" s="17"/>
+      <c r="I366" s="13"/>
       <c r="J366" s="17"/>
       <c r="K366" s="17"/>
       <c r="L366" s="17"/>
@@ -11172,7 +11172,7 @@
       <c r="F367" s="19"/>
       <c r="G367" s="17"/>
       <c r="H367" s="17"/>
-      <c r="I367" s="17"/>
+      <c r="I367" s="13"/>
       <c r="J367" s="17"/>
       <c r="K367" s="17"/>
       <c r="L367" s="17"/>
@@ -11193,7 +11193,7 @@
       <c r="F368" s="19"/>
       <c r="G368" s="17"/>
       <c r="H368" s="17"/>
-      <c r="I368" s="17"/>
+      <c r="I368" s="13"/>
       <c r="J368" s="17"/>
       <c r="K368" s="17"/>
       <c r="L368" s="17"/>
@@ -11214,7 +11214,7 @@
       <c r="F369" s="19"/>
       <c r="G369" s="17"/>
       <c r="H369" s="17"/>
-      <c r="I369" s="17"/>
+      <c r="I369" s="13"/>
       <c r="J369" s="17"/>
       <c r="K369" s="17"/>
       <c r="L369" s="17"/>
@@ -11235,7 +11235,7 @@
       <c r="F370" s="19"/>
       <c r="G370" s="17"/>
       <c r="H370" s="17"/>
-      <c r="I370" s="17"/>
+      <c r="I370" s="13"/>
       <c r="J370" s="17"/>
       <c r="K370" s="17"/>
       <c r="L370" s="17"/>
@@ -11256,7 +11256,7 @@
       <c r="F371" s="19"/>
       <c r="G371" s="17"/>
       <c r="H371" s="17"/>
-      <c r="I371" s="17"/>
+      <c r="I371" s="13"/>
       <c r="J371" s="17"/>
       <c r="K371" s="17"/>
       <c r="L371" s="17"/>
@@ -11277,7 +11277,7 @@
       <c r="F372" s="19"/>
       <c r="G372" s="17"/>
       <c r="H372" s="17"/>
-      <c r="I372" s="17"/>
+      <c r="I372" s="13"/>
       <c r="J372" s="17"/>
       <c r="K372" s="17"/>
       <c r="L372" s="17"/>
@@ -11298,7 +11298,7 @@
       <c r="F373" s="19"/>
       <c r="G373" s="17"/>
       <c r="H373" s="17"/>
-      <c r="I373" s="17"/>
+      <c r="I373" s="13"/>
       <c r="J373" s="17"/>
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
@@ -11319,7 +11319,7 @@
       <c r="F374" s="19"/>
       <c r="G374" s="17"/>
       <c r="H374" s="17"/>
-      <c r="I374" s="17"/>
+      <c r="I374" s="13"/>
       <c r="J374" s="17"/>
       <c r="K374" s="17"/>
       <c r="L374" s="17"/>
@@ -11340,7 +11340,7 @@
       <c r="F375" s="19"/>
       <c r="G375" s="17"/>
       <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
+      <c r="I375" s="13"/>
       <c r="J375" s="17"/>
       <c r="K375" s="17"/>
       <c r="L375" s="17"/>
@@ -11361,7 +11361,7 @@
       <c r="F376" s="19"/>
       <c r="G376" s="17"/>
       <c r="H376" s="17"/>
-      <c r="I376" s="17"/>
+      <c r="I376" s="13"/>
       <c r="J376" s="17"/>
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
@@ -11382,7 +11382,7 @@
       <c r="F377" s="19"/>
       <c r="G377" s="17"/>
       <c r="H377" s="17"/>
-      <c r="I377" s="17"/>
+      <c r="I377" s="13"/>
       <c r="J377" s="17"/>
       <c r="K377" s="17"/>
       <c r="L377" s="17"/>
@@ -11403,7 +11403,7 @@
       <c r="F378" s="19"/>
       <c r="G378" s="17"/>
       <c r="H378" s="17"/>
-      <c r="I378" s="17"/>
+      <c r="I378" s="13"/>
       <c r="J378" s="17"/>
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
@@ -11424,7 +11424,7 @@
       <c r="F379" s="19"/>
       <c r="G379" s="17"/>
       <c r="H379" s="17"/>
-      <c r="I379" s="17"/>
+      <c r="I379" s="13"/>
       <c r="J379" s="17"/>
       <c r="K379" s="17"/>
       <c r="L379" s="17"/>
@@ -11445,7 +11445,7 @@
       <c r="F380" s="19"/>
       <c r="G380" s="17"/>
       <c r="H380" s="17"/>
-      <c r="I380" s="17"/>
+      <c r="I380" s="13"/>
       <c r="J380" s="17"/>
       <c r="K380" s="17"/>
       <c r="L380" s="17"/>
@@ -11466,7 +11466,7 @@
       <c r="F381" s="19"/>
       <c r="G381" s="17"/>
       <c r="H381" s="17"/>
-      <c r="I381" s="17"/>
+      <c r="I381" s="13"/>
       <c r="J381" s="17"/>
       <c r="K381" s="17"/>
       <c r="L381" s="17"/>
@@ -11487,7 +11487,7 @@
       <c r="F382" s="19"/>
       <c r="G382" s="17"/>
       <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
+      <c r="I382" s="13"/>
       <c r="J382" s="17"/>
       <c r="K382" s="17"/>
       <c r="L382" s="17"/>
@@ -11508,7 +11508,7 @@
       <c r="F383" s="19"/>
       <c r="G383" s="17"/>
       <c r="H383" s="17"/>
-      <c r="I383" s="17"/>
+      <c r="I383" s="13"/>
       <c r="J383" s="17"/>
       <c r="K383" s="17"/>
       <c r="L383" s="17"/>
@@ -11529,7 +11529,7 @@
       <c r="F384" s="19"/>
       <c r="G384" s="17"/>
       <c r="H384" s="17"/>
-      <c r="I384" s="17"/>
+      <c r="I384" s="13"/>
       <c r="J384" s="17"/>
       <c r="K384" s="17"/>
       <c r="L384" s="17"/>
@@ -11550,7 +11550,7 @@
       <c r="F385" s="19"/>
       <c r="G385" s="17"/>
       <c r="H385" s="17"/>
-      <c r="I385" s="17"/>
+      <c r="I385" s="13"/>
       <c r="J385" s="17"/>
       <c r="K385" s="17"/>
       <c r="L385" s="17"/>
@@ -11571,7 +11571,7 @@
       <c r="F386" s="19"/>
       <c r="G386" s="17"/>
       <c r="H386" s="17"/>
-      <c r="I386" s="17"/>
+      <c r="I386" s="13"/>
       <c r="J386" s="17"/>
       <c r="K386" s="17"/>
       <c r="L386" s="17"/>
@@ -11592,7 +11592,7 @@
       <c r="F387" s="19"/>
       <c r="G387" s="17"/>
       <c r="H387" s="17"/>
-      <c r="I387" s="17"/>
+      <c r="I387" s="13"/>
       <c r="J387" s="17"/>
       <c r="K387" s="17"/>
       <c r="L387" s="17"/>
@@ -11613,7 +11613,7 @@
       <c r="F388" s="19"/>
       <c r="G388" s="17"/>
       <c r="H388" s="17"/>
-      <c r="I388" s="17"/>
+      <c r="I388" s="13"/>
       <c r="J388" s="17"/>
       <c r="K388" s="17"/>
       <c r="L388" s="17"/>
@@ -11634,7 +11634,7 @@
       <c r="F389" s="19"/>
       <c r="G389" s="17"/>
       <c r="H389" s="17"/>
-      <c r="I389" s="17"/>
+      <c r="I389" s="13"/>
       <c r="J389" s="17"/>
       <c r="K389" s="17"/>
       <c r="L389" s="17"/>
@@ -11655,7 +11655,7 @@
       <c r="F390" s="19"/>
       <c r="G390" s="17"/>
       <c r="H390" s="17"/>
-      <c r="I390" s="17"/>
+      <c r="I390" s="13"/>
       <c r="J390" s="17"/>
       <c r="K390" s="17"/>
       <c r="L390" s="17"/>
@@ -11676,7 +11676,7 @@
       <c r="F391" s="19"/>
       <c r="G391" s="17"/>
       <c r="H391" s="17"/>
-      <c r="I391" s="17"/>
+      <c r="I391" s="13"/>
       <c r="J391" s="17"/>
       <c r="K391" s="17"/>
       <c r="L391" s="17"/>
@@ -11697,7 +11697,7 @@
       <c r="F392" s="19"/>
       <c r="G392" s="17"/>
       <c r="H392" s="17"/>
-      <c r="I392" s="17"/>
+      <c r="I392" s="13"/>
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="17"/>
@@ -11718,7 +11718,7 @@
       <c r="F393" s="19"/>
       <c r="G393" s="17"/>
       <c r="H393" s="17"/>
-      <c r="I393" s="17"/>
+      <c r="I393" s="13"/>
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
       <c r="L393" s="17"/>
@@ -11739,7 +11739,7 @@
       <c r="F394" s="19"/>
       <c r="G394" s="17"/>
       <c r="H394" s="17"/>
-      <c r="I394" s="17"/>
+      <c r="I394" s="13"/>
       <c r="J394" s="17"/>
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
@@ -11760,7 +11760,7 @@
       <c r="F395" s="19"/>
       <c r="G395" s="17"/>
       <c r="H395" s="17"/>
-      <c r="I395" s="17"/>
+      <c r="I395" s="13"/>
       <c r="J395" s="17"/>
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
@@ -11781,7 +11781,7 @@
       <c r="F396" s="19"/>
       <c r="G396" s="17"/>
       <c r="H396" s="17"/>
-      <c r="I396" s="17"/>
+      <c r="I396" s="13"/>
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
@@ -11802,7 +11802,7 @@
       <c r="F397" s="19"/>
       <c r="G397" s="17"/>
       <c r="H397" s="17"/>
-      <c r="I397" s="17"/>
+      <c r="I397" s="13"/>
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
@@ -11823,7 +11823,7 @@
       <c r="F398" s="19"/>
       <c r="G398" s="17"/>
       <c r="H398" s="17"/>
-      <c r="I398" s="17"/>
+      <c r="I398" s="13"/>
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
@@ -11844,7 +11844,7 @@
       <c r="F399" s="19"/>
       <c r="G399" s="17"/>
       <c r="H399" s="17"/>
-      <c r="I399" s="17"/>
+      <c r="I399" s="13"/>
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
@@ -11865,7 +11865,7 @@
       <c r="F400" s="19"/>
       <c r="G400" s="17"/>
       <c r="H400" s="17"/>
-      <c r="I400" s="17"/>
+      <c r="I400" s="13"/>
       <c r="J400" s="17"/>
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
@@ -11886,7 +11886,7 @@
       <c r="F401" s="19"/>
       <c r="G401" s="17"/>
       <c r="H401" s="17"/>
-      <c r="I401" s="17"/>
+      <c r="I401" s="13"/>
       <c r="J401" s="17"/>
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
@@ -11907,7 +11907,7 @@
       <c r="F402" s="19"/>
       <c r="G402" s="17"/>
       <c r="H402" s="17"/>
-      <c r="I402" s="17"/>
+      <c r="I402" s="13"/>
       <c r="J402" s="17"/>
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
@@ -11928,7 +11928,7 @@
       <c r="F403" s="19"/>
       <c r="G403" s="17"/>
       <c r="H403" s="17"/>
-      <c r="I403" s="17"/>
+      <c r="I403" s="13"/>
       <c r="J403" s="17"/>
       <c r="K403" s="17"/>
       <c r="L403" s="17"/>
@@ -11949,7 +11949,7 @@
       <c r="F404" s="19"/>
       <c r="G404" s="17"/>
       <c r="H404" s="17"/>
-      <c r="I404" s="17"/>
+      <c r="I404" s="13"/>
       <c r="J404" s="17"/>
       <c r="K404" s="17"/>
       <c r="L404" s="17"/>
@@ -11970,7 +11970,7 @@
       <c r="F405" s="19"/>
       <c r="G405" s="17"/>
       <c r="H405" s="17"/>
-      <c r="I405" s="17"/>
+      <c r="I405" s="13"/>
       <c r="J405" s="17"/>
       <c r="K405" s="17"/>
       <c r="L405" s="17"/>
@@ -11991,7 +11991,7 @@
       <c r="F406" s="19"/>
       <c r="G406" s="17"/>
       <c r="H406" s="17"/>
-      <c r="I406" s="17"/>
+      <c r="I406" s="13"/>
       <c r="J406" s="17"/>
       <c r="K406" s="17"/>
       <c r="L406" s="17"/>
@@ -12012,7 +12012,7 @@
       <c r="F407" s="19"/>
       <c r="G407" s="17"/>
       <c r="H407" s="17"/>
-      <c r="I407" s="17"/>
+      <c r="I407" s="13"/>
       <c r="J407" s="17"/>
       <c r="K407" s="17"/>
       <c r="L407" s="17"/>
@@ -12033,7 +12033,7 @@
       <c r="F408" s="19"/>
       <c r="G408" s="17"/>
       <c r="H408" s="17"/>
-      <c r="I408" s="17"/>
+      <c r="I408" s="13"/>
       <c r="J408" s="17"/>
       <c r="K408" s="17"/>
       <c r="L408" s="17"/>
@@ -12054,7 +12054,7 @@
       <c r="F409" s="19"/>
       <c r="G409" s="17"/>
       <c r="H409" s="17"/>
-      <c r="I409" s="17"/>
+      <c r="I409" s="13"/>
       <c r="J409" s="17"/>
       <c r="K409" s="17"/>
       <c r="L409" s="17"/>
@@ -12075,7 +12075,7 @@
       <c r="F410" s="19"/>
       <c r="G410" s="17"/>
       <c r="H410" s="17"/>
-      <c r="I410" s="17"/>
+      <c r="I410" s="13"/>
       <c r="J410" s="17"/>
       <c r="K410" s="17"/>
       <c r="L410" s="17"/>
@@ -12096,7 +12096,7 @@
       <c r="F411" s="19"/>
       <c r="G411" s="17"/>
       <c r="H411" s="17"/>
-      <c r="I411" s="17"/>
+      <c r="I411" s="13"/>
       <c r="J411" s="17"/>
       <c r="K411" s="17"/>
       <c r="L411" s="17"/>
@@ -12117,7 +12117,7 @@
       <c r="F412" s="19"/>
       <c r="G412" s="17"/>
       <c r="H412" s="17"/>
-      <c r="I412" s="17"/>
+      <c r="I412" s="13"/>
       <c r="J412" s="17"/>
       <c r="K412" s="17"/>
       <c r="L412" s="17"/>
@@ -12138,7 +12138,7 @@
       <c r="F413" s="19"/>
       <c r="G413" s="17"/>
       <c r="H413" s="17"/>
-      <c r="I413" s="17"/>
+      <c r="I413" s="13"/>
       <c r="J413" s="17"/>
       <c r="K413" s="17"/>
       <c r="L413" s="17"/>
@@ -12159,7 +12159,7 @@
       <c r="F414" s="19"/>
       <c r="G414" s="17"/>
       <c r="H414" s="17"/>
-      <c r="I414" s="17"/>
+      <c r="I414" s="13"/>
       <c r="J414" s="17"/>
       <c r="K414" s="17"/>
       <c r="L414" s="17"/>
@@ -12180,7 +12180,7 @@
       <c r="F415" s="19"/>
       <c r="G415" s="17"/>
       <c r="H415" s="17"/>
-      <c r="I415" s="17"/>
+      <c r="I415" s="13"/>
       <c r="J415" s="17"/>
       <c r="K415" s="17"/>
       <c r="L415" s="17"/>
@@ -12201,7 +12201,7 @@
       <c r="F416" s="19"/>
       <c r="G416" s="17"/>
       <c r="H416" s="17"/>
-      <c r="I416" s="17"/>
+      <c r="I416" s="13"/>
       <c r="J416" s="17"/>
       <c r="K416" s="17"/>
       <c r="L416" s="17"/>
@@ -12222,7 +12222,7 @@
       <c r="F417" s="19"/>
       <c r="G417" s="17"/>
       <c r="H417" s="17"/>
-      <c r="I417" s="17"/>
+      <c r="I417" s="13"/>
       <c r="J417" s="17"/>
       <c r="K417" s="17"/>
       <c r="L417" s="17"/>
@@ -12243,7 +12243,7 @@
       <c r="F418" s="19"/>
       <c r="G418" s="17"/>
       <c r="H418" s="17"/>
-      <c r="I418" s="17"/>
+      <c r="I418" s="13"/>
       <c r="J418" s="17"/>
       <c r="K418" s="17"/>
       <c r="L418" s="17"/>
@@ -12264,7 +12264,7 @@
       <c r="F419" s="19"/>
       <c r="G419" s="17"/>
       <c r="H419" s="17"/>
-      <c r="I419" s="17"/>
+      <c r="I419" s="13"/>
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="17"/>
@@ -12285,7 +12285,7 @@
       <c r="F420" s="19"/>
       <c r="G420" s="17"/>
       <c r="H420" s="17"/>
-      <c r="I420" s="17"/>
+      <c r="I420" s="13"/>
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="17"/>
@@ -12306,7 +12306,7 @@
       <c r="F421" s="19"/>
       <c r="G421" s="17"/>
       <c r="H421" s="17"/>
-      <c r="I421" s="17"/>
+      <c r="I421" s="13"/>
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="17"/>
@@ -12327,7 +12327,7 @@
       <c r="F422" s="19"/>
       <c r="G422" s="17"/>
       <c r="H422" s="17"/>
-      <c r="I422" s="17"/>
+      <c r="I422" s="13"/>
       <c r="J422" s="17"/>
       <c r="K422" s="17"/>
       <c r="L422" s="17"/>
@@ -12348,7 +12348,7 @@
       <c r="F423" s="19"/>
       <c r="G423" s="17"/>
       <c r="H423" s="17"/>
-      <c r="I423" s="17"/>
+      <c r="I423" s="13"/>
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="17"/>
@@ -12369,7 +12369,7 @@
       <c r="F424" s="19"/>
       <c r="G424" s="17"/>
       <c r="H424" s="17"/>
-      <c r="I424" s="17"/>
+      <c r="I424" s="13"/>
       <c r="J424" s="17"/>
       <c r="K424" s="17"/>
       <c r="L424" s="17"/>
@@ -12390,7 +12390,7 @@
       <c r="F425" s="19"/>
       <c r="G425" s="17"/>
       <c r="H425" s="17"/>
-      <c r="I425" s="17"/>
+      <c r="I425" s="13"/>
       <c r="J425" s="17"/>
       <c r="K425" s="17"/>
       <c r="L425" s="17"/>
@@ -12411,7 +12411,7 @@
       <c r="F426" s="19"/>
       <c r="G426" s="17"/>
       <c r="H426" s="17"/>
-      <c r="I426" s="17"/>
+      <c r="I426" s="13"/>
       <c r="J426" s="17"/>
       <c r="K426" s="17"/>
       <c r="L426" s="17"/>
@@ -12432,7 +12432,7 @@
       <c r="F427" s="19"/>
       <c r="G427" s="17"/>
       <c r="H427" s="17"/>
-      <c r="I427" s="17"/>
+      <c r="I427" s="13"/>
       <c r="J427" s="17"/>
       <c r="K427" s="17"/>
       <c r="L427" s="17"/>
@@ -12453,7 +12453,7 @@
       <c r="F428" s="19"/>
       <c r="G428" s="17"/>
       <c r="H428" s="17"/>
-      <c r="I428" s="17"/>
+      <c r="I428" s="13"/>
       <c r="J428" s="17"/>
       <c r="K428" s="17"/>
       <c r="L428" s="17"/>
@@ -12474,7 +12474,7 @@
       <c r="F429" s="19"/>
       <c r="G429" s="17"/>
       <c r="H429" s="17"/>
-      <c r="I429" s="17"/>
+      <c r="I429" s="13"/>
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="17"/>
@@ -12495,7 +12495,7 @@
       <c r="F430" s="19"/>
       <c r="G430" s="17"/>
       <c r="H430" s="17"/>
-      <c r="I430" s="17"/>
+      <c r="I430" s="13"/>
       <c r="J430" s="17"/>
       <c r="K430" s="17"/>
       <c r="L430" s="17"/>
@@ -12516,7 +12516,7 @@
       <c r="F431" s="19"/>
       <c r="G431" s="17"/>
       <c r="H431" s="17"/>
-      <c r="I431" s="17"/>
+      <c r="I431" s="13"/>
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="17"/>
@@ -12537,7 +12537,7 @@
       <c r="F432" s="19"/>
       <c r="G432" s="17"/>
       <c r="H432" s="17"/>
-      <c r="I432" s="17"/>
+      <c r="I432" s="13"/>
       <c r="J432" s="17"/>
       <c r="K432" s="17"/>
       <c r="L432" s="17"/>
@@ -12558,7 +12558,7 @@
       <c r="F433" s="19"/>
       <c r="G433" s="17"/>
       <c r="H433" s="17"/>
-      <c r="I433" s="17"/>
+      <c r="I433" s="13"/>
       <c r="J433" s="17"/>
       <c r="K433" s="17"/>
       <c r="L433" s="17"/>
@@ -12579,7 +12579,7 @@
       <c r="F434" s="19"/>
       <c r="G434" s="17"/>
       <c r="H434" s="17"/>
-      <c r="I434" s="17"/>
+      <c r="I434" s="13"/>
       <c r="J434" s="17"/>
       <c r="K434" s="17"/>
       <c r="L434" s="17"/>
@@ -12600,7 +12600,7 @@
       <c r="F435" s="19"/>
       <c r="G435" s="17"/>
       <c r="H435" s="17"/>
-      <c r="I435" s="17"/>
+      <c r="I435" s="13"/>
       <c r="J435" s="17"/>
       <c r="K435" s="17"/>
       <c r="L435" s="17"/>
@@ -12621,7 +12621,7 @@
       <c r="F436" s="19"/>
       <c r="G436" s="17"/>
       <c r="H436" s="17"/>
-      <c r="I436" s="17"/>
+      <c r="I436" s="13"/>
       <c r="J436" s="17"/>
       <c r="K436" s="17"/>
       <c r="L436" s="17"/>
@@ -12642,7 +12642,7 @@
       <c r="F437" s="19"/>
       <c r="G437" s="17"/>
       <c r="H437" s="17"/>
-      <c r="I437" s="17"/>
+      <c r="I437" s="13"/>
       <c r="J437" s="17"/>
       <c r="K437" s="17"/>
       <c r="L437" s="17"/>
@@ -12663,7 +12663,7 @@
       <c r="F438" s="19"/>
       <c r="G438" s="17"/>
       <c r="H438" s="17"/>
-      <c r="I438" s="17"/>
+      <c r="I438" s="13"/>
       <c r="J438" s="17"/>
       <c r="K438" s="17"/>
       <c r="L438" s="17"/>
@@ -12684,7 +12684,7 @@
       <c r="F439" s="19"/>
       <c r="G439" s="17"/>
       <c r="H439" s="17"/>
-      <c r="I439" s="17"/>
+      <c r="I439" s="13"/>
       <c r="J439" s="17"/>
       <c r="K439" s="17"/>
       <c r="L439" s="17"/>
@@ -12705,7 +12705,7 @@
       <c r="F440" s="19"/>
       <c r="G440" s="17"/>
       <c r="H440" s="17"/>
-      <c r="I440" s="17"/>
+      <c r="I440" s="13"/>
       <c r="J440" s="17"/>
       <c r="K440" s="17"/>
       <c r="L440" s="17"/>
@@ -12726,7 +12726,7 @@
       <c r="F441" s="19"/>
       <c r="G441" s="17"/>
       <c r="H441" s="17"/>
-      <c r="I441" s="17"/>
+      <c r="I441" s="13"/>
       <c r="J441" s="17"/>
       <c r="K441" s="17"/>
       <c r="L441" s="17"/>
@@ -12747,7 +12747,7 @@
       <c r="F442" s="19"/>
       <c r="G442" s="17"/>
       <c r="H442" s="17"/>
-      <c r="I442" s="17"/>
+      <c r="I442" s="13"/>
       <c r="J442" s="17"/>
       <c r="K442" s="17"/>
       <c r="L442" s="17"/>
@@ -12768,7 +12768,7 @@
       <c r="F443" s="19"/>
       <c r="G443" s="17"/>
       <c r="H443" s="17"/>
-      <c r="I443" s="17"/>
+      <c r="I443" s="13"/>
       <c r="J443" s="17"/>
       <c r="K443" s="17"/>
       <c r="L443" s="17"/>
@@ -12789,7 +12789,7 @@
       <c r="F444" s="19"/>
       <c r="G444" s="17"/>
       <c r="H444" s="17"/>
-      <c r="I444" s="17"/>
+      <c r="I444" s="13"/>
       <c r="J444" s="17"/>
       <c r="K444" s="17"/>
       <c r="L444" s="17"/>
@@ -12810,7 +12810,7 @@
       <c r="F445" s="19"/>
       <c r="G445" s="17"/>
       <c r="H445" s="17"/>
-      <c r="I445" s="17"/>
+      <c r="I445" s="13"/>
       <c r="J445" s="17"/>
       <c r="K445" s="17"/>
       <c r="L445" s="17"/>
@@ -12831,7 +12831,7 @@
       <c r="F446" s="19"/>
       <c r="G446" s="17"/>
       <c r="H446" s="17"/>
-      <c r="I446" s="17"/>
+      <c r="I446" s="13"/>
       <c r="J446" s="17"/>
       <c r="K446" s="17"/>
       <c r="L446" s="17"/>
@@ -12852,7 +12852,7 @@
       <c r="F447" s="19"/>
       <c r="G447" s="17"/>
       <c r="H447" s="17"/>
-      <c r="I447" s="17"/>
+      <c r="I447" s="13"/>
       <c r="J447" s="17"/>
       <c r="K447" s="17"/>
       <c r="L447" s="17"/>
@@ -12873,7 +12873,7 @@
       <c r="F448" s="19"/>
       <c r="G448" s="17"/>
       <c r="H448" s="17"/>
-      <c r="I448" s="17"/>
+      <c r="I448" s="13"/>
       <c r="J448" s="17"/>
       <c r="K448" s="17"/>
       <c r="L448" s="17"/>
@@ -12894,7 +12894,7 @@
       <c r="F449" s="19"/>
       <c r="G449" s="17"/>
       <c r="H449" s="17"/>
-      <c r="I449" s="17"/>
+      <c r="I449" s="13"/>
       <c r="J449" s="17"/>
       <c r="K449" s="17"/>
       <c r="L449" s="17"/>
@@ -12915,7 +12915,7 @@
       <c r="F450" s="19"/>
       <c r="G450" s="17"/>
       <c r="H450" s="17"/>
-      <c r="I450" s="17"/>
+      <c r="I450" s="13"/>
       <c r="J450" s="17"/>
       <c r="K450" s="17"/>
       <c r="L450" s="17"/>
@@ -12936,7 +12936,7 @@
       <c r="F451" s="19"/>
       <c r="G451" s="17"/>
       <c r="H451" s="17"/>
-      <c r="I451" s="17"/>
+      <c r="I451" s="13"/>
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
       <c r="L451" s="17"/>
@@ -12957,7 +12957,7 @@
       <c r="F452" s="19"/>
       <c r="G452" s="17"/>
       <c r="H452" s="17"/>
-      <c r="I452" s="17"/>
+      <c r="I452" s="13"/>
       <c r="J452" s="17"/>
       <c r="K452" s="17"/>
       <c r="L452" s="17"/>
@@ -12978,7 +12978,7 @@
       <c r="F453" s="19"/>
       <c r="G453" s="17"/>
       <c r="H453" s="17"/>
-      <c r="I453" s="17"/>
+      <c r="I453" s="13"/>
       <c r="J453" s="17"/>
       <c r="K453" s="17"/>
       <c r="L453" s="17"/>
@@ -12999,7 +12999,7 @@
       <c r="F454" s="19"/>
       <c r="G454" s="17"/>
       <c r="H454" s="17"/>
-      <c r="I454" s="17"/>
+      <c r="I454" s="13"/>
       <c r="J454" s="17"/>
       <c r="K454" s="17"/>
       <c r="L454" s="17"/>
@@ -13020,7 +13020,7 @@
       <c r="F455" s="19"/>
       <c r="G455" s="17"/>
       <c r="H455" s="17"/>
-      <c r="I455" s="17"/>
+      <c r="I455" s="13"/>
       <c r="J455" s="17"/>
       <c r="K455" s="17"/>
       <c r="L455" s="17"/>
@@ -13041,7 +13041,7 @@
       <c r="F456" s="19"/>
       <c r="G456" s="17"/>
       <c r="H456" s="17"/>
-      <c r="I456" s="17"/>
+      <c r="I456" s="13"/>
       <c r="J456" s="17"/>
       <c r="K456" s="17"/>
       <c r="L456" s="17"/>
@@ -13062,7 +13062,7 @@
       <c r="F457" s="19"/>
       <c r="G457" s="17"/>
       <c r="H457" s="17"/>
-      <c r="I457" s="17"/>
+      <c r="I457" s="13"/>
       <c r="J457" s="17"/>
       <c r="K457" s="17"/>
       <c r="L457" s="17"/>
@@ -13083,7 +13083,7 @@
       <c r="F458" s="19"/>
       <c r="G458" s="17"/>
       <c r="H458" s="17"/>
-      <c r="I458" s="17"/>
+      <c r="I458" s="13"/>
       <c r="J458" s="17"/>
       <c r="K458" s="17"/>
       <c r="L458" s="17"/>
@@ -13104,7 +13104,7 @@
       <c r="F459" s="19"/>
       <c r="G459" s="17"/>
       <c r="H459" s="17"/>
-      <c r="I459" s="17"/>
+      <c r="I459" s="13"/>
       <c r="J459" s="17"/>
       <c r="K459" s="17"/>
       <c r="L459" s="17"/>
@@ -13125,7 +13125,7 @@
       <c r="F460" s="19"/>
       <c r="G460" s="17"/>
       <c r="H460" s="17"/>
-      <c r="I460" s="17"/>
+      <c r="I460" s="13"/>
       <c r="J460" s="17"/>
       <c r="K460" s="17"/>
       <c r="L460" s="17"/>
@@ -13146,7 +13146,7 @@
       <c r="F461" s="19"/>
       <c r="G461" s="17"/>
       <c r="H461" s="17"/>
-      <c r="I461" s="17"/>
+      <c r="I461" s="13"/>
       <c r="J461" s="17"/>
       <c r="K461" s="17"/>
       <c r="L461" s="17"/>
@@ -13167,7 +13167,7 @@
       <c r="F462" s="19"/>
       <c r="G462" s="17"/>
       <c r="H462" s="17"/>
-      <c r="I462" s="17"/>
+      <c r="I462" s="13"/>
       <c r="J462" s="17"/>
       <c r="K462" s="17"/>
       <c r="L462" s="17"/>
@@ -13188,7 +13188,7 @@
       <c r="F463" s="19"/>
       <c r="G463" s="17"/>
       <c r="H463" s="17"/>
-      <c r="I463" s="17"/>
+      <c r="I463" s="13"/>
       <c r="J463" s="17"/>
       <c r="K463" s="17"/>
       <c r="L463" s="17"/>
@@ -13209,7 +13209,7 @@
       <c r="F464" s="19"/>
       <c r="G464" s="17"/>
       <c r="H464" s="17"/>
-      <c r="I464" s="17"/>
+      <c r="I464" s="13"/>
       <c r="J464" s="17"/>
       <c r="K464" s="17"/>
       <c r="L464" s="17"/>
@@ -13230,7 +13230,7 @@
       <c r="F465" s="19"/>
       <c r="G465" s="17"/>
       <c r="H465" s="17"/>
-      <c r="I465" s="17"/>
+      <c r="I465" s="13"/>
       <c r="J465" s="17"/>
       <c r="K465" s="17"/>
       <c r="L465" s="17"/>
@@ -13251,7 +13251,7 @@
       <c r="F466" s="19"/>
       <c r="G466" s="17"/>
       <c r="H466" s="17"/>
-      <c r="I466" s="17"/>
+      <c r="I466" s="13"/>
       <c r="J466" s="17"/>
       <c r="K466" s="17"/>
       <c r="L466" s="17"/>
@@ -13272,7 +13272,7 @@
       <c r="F467" s="19"/>
       <c r="G467" s="17"/>
       <c r="H467" s="17"/>
-      <c r="I467" s="17"/>
+      <c r="I467" s="13"/>
       <c r="J467" s="17"/>
       <c r="K467" s="17"/>
       <c r="L467" s="17"/>
@@ -13293,7 +13293,7 @@
       <c r="F468" s="19"/>
       <c r="G468" s="17"/>
       <c r="H468" s="17"/>
-      <c r="I468" s="17"/>
+      <c r="I468" s="13"/>
       <c r="J468" s="17"/>
       <c r="K468" s="17"/>
       <c r="L468" s="17"/>
@@ -13314,7 +13314,7 @@
       <c r="F469" s="19"/>
       <c r="G469" s="17"/>
       <c r="H469" s="17"/>
-      <c r="I469" s="17"/>
+      <c r="I469" s="13"/>
       <c r="J469" s="17"/>
       <c r="K469" s="17"/>
       <c r="L469" s="17"/>
@@ -13335,7 +13335,7 @@
       <c r="F470" s="19"/>
       <c r="G470" s="17"/>
       <c r="H470" s="17"/>
-      <c r="I470" s="17"/>
+      <c r="I470" s="13"/>
       <c r="J470" s="17"/>
       <c r="K470" s="17"/>
       <c r="L470" s="17"/>
@@ -13356,7 +13356,7 @@
       <c r="F471" s="19"/>
       <c r="G471" s="17"/>
       <c r="H471" s="17"/>
-      <c r="I471" s="17"/>
+      <c r="I471" s="13"/>
       <c r="J471" s="17"/>
       <c r="K471" s="17"/>
       <c r="L471" s="17"/>
@@ -13377,7 +13377,7 @@
       <c r="F472" s="19"/>
       <c r="G472" s="17"/>
       <c r="H472" s="17"/>
-      <c r="I472" s="17"/>
+      <c r="I472" s="13"/>
       <c r="J472" s="17"/>
       <c r="K472" s="17"/>
       <c r="L472" s="17"/>
@@ -13398,7 +13398,7 @@
       <c r="F473" s="19"/>
       <c r="G473" s="17"/>
       <c r="H473" s="17"/>
-      <c r="I473" s="17"/>
+      <c r="I473" s="13"/>
       <c r="J473" s="17"/>
       <c r="K473" s="17"/>
       <c r="L473" s="17"/>
@@ -13419,7 +13419,7 @@
       <c r="F474" s="19"/>
       <c r="G474" s="17"/>
       <c r="H474" s="17"/>
-      <c r="I474" s="17"/>
+      <c r="I474" s="13"/>
       <c r="J474" s="17"/>
       <c r="K474" s="17"/>
       <c r="L474" s="17"/>
@@ -13440,7 +13440,7 @@
       <c r="F475" s="19"/>
       <c r="G475" s="17"/>
       <c r="H475" s="17"/>
-      <c r="I475" s="17"/>
+      <c r="I475" s="13"/>
       <c r="J475" s="17"/>
       <c r="K475" s="17"/>
       <c r="L475" s="17"/>
@@ -13461,7 +13461,7 @@
       <c r="F476" s="19"/>
       <c r="G476" s="17"/>
       <c r="H476" s="17"/>
-      <c r="I476" s="17"/>
+      <c r="I476" s="13"/>
       <c r="J476" s="17"/>
       <c r="K476" s="17"/>
       <c r="L476" s="17"/>
@@ -13482,7 +13482,7 @@
       <c r="F477" s="19"/>
       <c r="G477" s="17"/>
       <c r="H477" s="17"/>
-      <c r="I477" s="17"/>
+      <c r="I477" s="13"/>
       <c r="J477" s="17"/>
       <c r="K477" s="17"/>
       <c r="L477" s="17"/>
@@ -13503,7 +13503,7 @@
       <c r="F478" s="19"/>
       <c r="G478" s="17"/>
       <c r="H478" s="17"/>
-      <c r="I478" s="17"/>
+      <c r="I478" s="13"/>
       <c r="J478" s="17"/>
       <c r="K478" s="17"/>
       <c r="L478" s="17"/>
@@ -13524,7 +13524,7 @@
       <c r="F479" s="19"/>
       <c r="G479" s="17"/>
       <c r="H479" s="17"/>
-      <c r="I479" s="17"/>
+      <c r="I479" s="13"/>
       <c r="J479" s="17"/>
       <c r="K479" s="17"/>
       <c r="L479" s="17"/>
@@ -13545,7 +13545,7 @@
       <c r="F480" s="19"/>
       <c r="G480" s="17"/>
       <c r="H480" s="17"/>
-      <c r="I480" s="17"/>
+      <c r="I480" s="13"/>
       <c r="J480" s="17"/>
       <c r="K480" s="17"/>
       <c r="L480" s="17"/>
@@ -13566,7 +13566,7 @@
       <c r="F481" s="19"/>
       <c r="G481" s="17"/>
       <c r="H481" s="17"/>
-      <c r="I481" s="17"/>
+      <c r="I481" s="13"/>
       <c r="J481" s="17"/>
       <c r="K481" s="17"/>
       <c r="L481" s="17"/>
@@ -13587,7 +13587,7 @@
       <c r="F482" s="19"/>
       <c r="G482" s="17"/>
       <c r="H482" s="17"/>
-      <c r="I482" s="17"/>
+      <c r="I482" s="13"/>
       <c r="J482" s="17"/>
       <c r="K482" s="17"/>
       <c r="L482" s="17"/>
@@ -13608,7 +13608,7 @@
       <c r="F483" s="19"/>
       <c r="G483" s="17"/>
       <c r="H483" s="17"/>
-      <c r="I483" s="17"/>
+      <c r="I483" s="13"/>
       <c r="J483" s="17"/>
       <c r="K483" s="17"/>
       <c r="L483" s="17"/>
@@ -13629,7 +13629,7 @@
       <c r="F484" s="19"/>
       <c r="G484" s="17"/>
       <c r="H484" s="17"/>
-      <c r="I484" s="17"/>
+      <c r="I484" s="13"/>
       <c r="J484" s="17"/>
       <c r="K484" s="17"/>
       <c r="L484" s="17"/>
@@ -13650,7 +13650,7 @@
       <c r="F485" s="19"/>
       <c r="G485" s="17"/>
       <c r="H485" s="17"/>
-      <c r="I485" s="17"/>
+      <c r="I485" s="13"/>
       <c r="J485" s="17"/>
       <c r="K485" s="17"/>
       <c r="L485" s="17"/>
@@ -13671,7 +13671,7 @@
       <c r="F486" s="19"/>
       <c r="G486" s="17"/>
       <c r="H486" s="17"/>
-      <c r="I486" s="17"/>
+      <c r="I486" s="13"/>
       <c r="J486" s="17"/>
       <c r="K486" s="17"/>
       <c r="L486" s="17"/>
@@ -13692,7 +13692,7 @@
       <c r="F487" s="19"/>
       <c r="G487" s="17"/>
       <c r="H487" s="17"/>
-      <c r="I487" s="17"/>
+      <c r="I487" s="13"/>
       <c r="J487" s="17"/>
       <c r="K487" s="17"/>
       <c r="L487" s="17"/>
@@ -13713,7 +13713,7 @@
       <c r="F488" s="19"/>
       <c r="G488" s="17"/>
       <c r="H488" s="17"/>
-      <c r="I488" s="17"/>
+      <c r="I488" s="13"/>
       <c r="J488" s="17"/>
       <c r="K488" s="17"/>
       <c r="L488" s="17"/>
@@ -13734,7 +13734,7 @@
       <c r="F489" s="19"/>
       <c r="G489" s="17"/>
       <c r="H489" s="17"/>
-      <c r="I489" s="17"/>
+      <c r="I489" s="13"/>
       <c r="J489" s="17"/>
       <c r="K489" s="17"/>
       <c r="L489" s="17"/>
@@ -13755,7 +13755,7 @@
       <c r="F490" s="19"/>
       <c r="G490" s="17"/>
       <c r="H490" s="17"/>
-      <c r="I490" s="17"/>
+      <c r="I490" s="13"/>
       <c r="J490" s="17"/>
       <c r="K490" s="17"/>
       <c r="L490" s="17"/>
@@ -13776,7 +13776,7 @@
       <c r="F491" s="19"/>
       <c r="G491" s="17"/>
       <c r="H491" s="17"/>
-      <c r="I491" s="17"/>
+      <c r="I491" s="13"/>
       <c r="J491" s="17"/>
       <c r="K491" s="17"/>
       <c r="L491" s="17"/>
@@ -13797,7 +13797,7 @@
       <c r="F492" s="19"/>
       <c r="G492" s="17"/>
       <c r="H492" s="17"/>
-      <c r="I492" s="17"/>
+      <c r="I492" s="13"/>
       <c r="J492" s="17"/>
       <c r="K492" s="17"/>
       <c r="L492" s="17"/>
@@ -13818,7 +13818,7 @@
       <c r="F493" s="19"/>
       <c r="G493" s="17"/>
       <c r="H493" s="17"/>
-      <c r="I493" s="17"/>
+      <c r="I493" s="13"/>
       <c r="J493" s="17"/>
       <c r="K493" s="17"/>
       <c r="L493" s="17"/>
@@ -13839,7 +13839,7 @@
       <c r="F494" s="19"/>
       <c r="G494" s="17"/>
       <c r="H494" s="17"/>
-      <c r="I494" s="17"/>
+      <c r="I494" s="13"/>
       <c r="J494" s="17"/>
       <c r="K494" s="17"/>
       <c r="L494" s="17"/>
@@ -13860,7 +13860,7 @@
       <c r="F495" s="19"/>
       <c r="G495" s="17"/>
       <c r="H495" s="17"/>
-      <c r="I495" s="17"/>
+      <c r="I495" s="13"/>
       <c r="J495" s="17"/>
       <c r="K495" s="17"/>
       <c r="L495" s="17"/>
@@ -13881,7 +13881,7 @@
       <c r="F496" s="19"/>
       <c r="G496" s="17"/>
       <c r="H496" s="17"/>
-      <c r="I496" s="17"/>
+      <c r="I496" s="13"/>
       <c r="J496" s="17"/>
       <c r="K496" s="17"/>
       <c r="L496" s="17"/>
@@ -13902,7 +13902,7 @@
       <c r="F497" s="19"/>
       <c r="G497" s="17"/>
       <c r="H497" s="17"/>
-      <c r="I497" s="17"/>
+      <c r="I497" s="13"/>
       <c r="J497" s="17"/>
       <c r="K497" s="17"/>
       <c r="L497" s="17"/>
@@ -13923,7 +13923,7 @@
       <c r="F498" s="19"/>
       <c r="G498" s="17"/>
       <c r="H498" s="17"/>
-      <c r="I498" s="17"/>
+      <c r="I498" s="13"/>
       <c r="J498" s="17"/>
       <c r="K498" s="17"/>
       <c r="L498" s="17"/>
@@ -13944,7 +13944,7 @@
       <c r="F499" s="19"/>
       <c r="G499" s="17"/>
       <c r="H499" s="17"/>
-      <c r="I499" s="17"/>
+      <c r="I499" s="13"/>
       <c r="J499" s="17"/>
       <c r="K499" s="17"/>
       <c r="L499" s="17"/>
@@ -13965,7 +13965,7 @@
       <c r="F500" s="19"/>
       <c r="G500" s="17"/>
       <c r="H500" s="17"/>
-      <c r="I500" s="17"/>
+      <c r="I500" s="13"/>
       <c r="J500" s="17"/>
       <c r="K500" s="17"/>
       <c r="L500" s="17"/>
@@ -13986,7 +13986,7 @@
       <c r="F501" s="19"/>
       <c r="G501" s="17"/>
       <c r="H501" s="17"/>
-      <c r="I501" s="17"/>
+      <c r="I501" s="13"/>
       <c r="J501" s="17"/>
       <c r="K501" s="17"/>
       <c r="L501" s="17"/>
@@ -13999,7 +13999,7 @@
       <c r="S501" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wd9bq7myjOOPmcZJWKjUjjpiE4jKIkFqPI8nQidn7NZ50+yVzhwEvgxxXfPbj9ey+oX5oo7/6rN8+GscMfClTg==" saltValue="htbTLvt36PRbwyuu8kZenw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zKi932IkBiBlL0Otau6FsTcSPTBne7Ej6fnlwol/Fl2yuR9GGLGqxRTFXU5ZqnmiCMx3xVs2pPPIQPMS9mBMBA==" saltValue="8a7m8VYyjXH52yt6aRgApw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations xWindow="504" yWindow="412" count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"Year, Month,Day"</formula1>
@@ -14047,11 +14047,11 @@
       <formula1>1</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I501">
-      <formula1>"Dalit,Janajati,Madheshi,Muslim,Brahmin,Other,Don't Know"</formula1>
-    </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Please read this" error="Please enter date in YYYY-MM-DD format in A.D._x000a_Note: Month &amp; Day should contain leading 0 if 1 digit._x000a_eg: 2021-09-01" sqref="S2:S501">
       <formula1>IF(AND(ISNUMBER(VALUE(MID(S2,1,4))),ISNUMBER(VALUE(MID(S2,6,2))),ISNUMBER(VALUE(MID(S2,9,2))),MID(S2,5,1)="-",MID(S2,8,1)="-",LEN(S2)=10),TRUE)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I501">
+      <formula1>"Dalit,Janajati,Madheshi,Muslim,Brahmin/Chhetri,Other,Don't Know"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
